--- a/Data_frame/balancos_definitivos/ATOM3.xlsx
+++ b/Data_frame/balancos_definitivos/ATOM3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BL80"/>
+  <dimension ref="A1:BI80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,315 +441,300 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2008</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2009</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>30/06/2009</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>30/09/2009</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>31/12/2009</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>31/03/2010</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>30/06/2010</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>30/09/2010</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>31/12/2010</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>31/03/2011</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>30/06/2011</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>30/09/2011</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>31/12/2011</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>31/03/2012</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>30/06/2012</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>30/09/2012</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>31/12/2012</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>31/03/2013</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>30/06/2013</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>30/09/2013</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>31/12/2013</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>31/03/2014</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>30/06/2014</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>30/09/2014</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>31/12/2014</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>31/03/2015</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>30/06/2015</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>30/09/2015</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>31/12/2015</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>31/03/2016</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>30/06/2016</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>30/09/2016</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>31/12/2016</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>31/03/2017</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>30/06/2017</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>30/09/2017</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>31/12/2017</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>31/03/2018</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>30/06/2018</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>30/09/2018</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>31/12/2018</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>31/03/2019</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>30/06/2019</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>30/09/2019</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>31/12/2019</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>31/03/2020</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>30/06/2020</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>30/09/2020</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>31/12/2020</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>31/03/2021</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>30/06/2021</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>30/09/2021</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>31/12/2021</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>31/03/2022</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>30/09/2022</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>31/12/2022</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>31/03/2023</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>30/06/2023</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>30/09/2023</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>31/12/2023</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>31/03/2024</t>
         </is>
@@ -762,94 +747,94 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="C2" t="n">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="D2" t="n">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="E2" t="n">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F2" t="n">
         <v>349</v>
       </c>
       <c r="G2" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H2" t="n">
-        <v>349</v>
+        <v>437</v>
       </c>
       <c r="I2" t="n">
-        <v>349</v>
+        <v>445</v>
       </c>
       <c r="J2" t="n">
-        <v>350</v>
+        <v>468</v>
       </c>
       <c r="K2" t="n">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="L2" t="n">
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="M2" t="n">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="N2" t="n">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="O2" t="n">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="P2" t="n">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="Q2" t="n">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="R2" t="n">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="S2" t="n">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="T2" t="n">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="U2" t="n">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="V2" t="n">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="W2" t="n">
-        <v>539</v>
+        <v>568</v>
       </c>
       <c r="X2" t="n">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="Y2" t="n">
-        <v>555</v>
+        <v>578</v>
       </c>
       <c r="Z2" t="n">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="AA2" t="n">
         <v>577</v>
       </c>
       <c r="AB2" t="n">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AC2" t="n">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="AD2" t="n">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="AE2" t="n">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="AF2" t="n">
         <v>587</v>
@@ -858,96 +843,87 @@
         <v>587</v>
       </c>
       <c r="AH2" t="n">
-        <v>587</v>
+        <v>1836</v>
       </c>
       <c r="AI2" t="n">
-        <v>587</v>
+        <v>3344</v>
       </c>
       <c r="AJ2" t="n">
-        <v>587</v>
+        <v>5236</v>
       </c>
       <c r="AK2" t="n">
-        <v>1836</v>
+        <v>6786</v>
       </c>
       <c r="AL2" t="n">
-        <v>3344</v>
+        <v>6788</v>
       </c>
       <c r="AM2" t="n">
-        <v>5236</v>
+        <v>9575</v>
       </c>
       <c r="AN2" t="n">
-        <v>6786</v>
+        <v>11238</v>
       </c>
       <c r="AO2" t="n">
-        <v>6788</v>
+        <v>12675</v>
       </c>
       <c r="AP2" t="n">
-        <v>9575</v>
+        <v>12863</v>
       </c>
       <c r="AQ2" t="n">
-        <v>11238</v>
+        <v>12903</v>
       </c>
       <c r="AR2" t="n">
-        <v>12675</v>
+        <v>14624</v>
       </c>
       <c r="AS2" t="n">
-        <v>12863</v>
+        <v>18716</v>
       </c>
       <c r="AT2" t="n">
-        <v>12903</v>
+        <v>21828</v>
       </c>
       <c r="AU2" t="n">
-        <v>14624</v>
+        <v>26163</v>
       </c>
       <c r="AV2" t="n">
-        <v>18716</v>
+        <v>27245</v>
       </c>
       <c r="AW2" t="n">
-        <v>21828</v>
+        <v>31990</v>
       </c>
       <c r="AX2" t="n">
-        <v>26163</v>
+        <v>27459</v>
       </c>
       <c r="AY2" t="n">
-        <v>27245</v>
+        <v>27186</v>
       </c>
       <c r="AZ2" t="n">
-        <v>31990</v>
+        <v>26735</v>
       </c>
       <c r="BA2" t="n">
-        <v>27459</v>
+        <v>36472</v>
       </c>
       <c r="BB2" t="n">
-        <v>27186</v>
+        <v>35889</v>
       </c>
       <c r="BC2" t="n">
-        <v>26735</v>
+        <v>36897</v>
       </c>
       <c r="BD2" t="n">
-        <v>36472</v>
+        <v>35041</v>
       </c>
       <c r="BE2" t="n">
-        <v>35889</v>
+        <v>37887</v>
       </c>
       <c r="BF2" t="n">
-        <v>36897</v>
+        <v>28502</v>
       </c>
       <c r="BG2" t="n">
-        <v>35041</v>
+        <v>28113</v>
       </c>
       <c r="BH2" t="n">
-        <v>37887</v>
+        <v>25946</v>
       </c>
       <c r="BI2" t="n">
-        <v>28502</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>28113</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>25946</v>
-      </c>
-      <c r="BL2" t="n">
         <v>52873</v>
       </c>
     </row>
@@ -958,85 +934,85 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="C3" t="n">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="D3" t="n">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="E3" t="n">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F3" t="n">
         <v>349</v>
       </c>
       <c r="G3" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H3" t="n">
-        <v>349</v>
+        <v>437</v>
       </c>
       <c r="I3" t="n">
-        <v>349</v>
+        <v>445</v>
       </c>
       <c r="J3" t="n">
-        <v>350</v>
+        <v>468</v>
       </c>
       <c r="K3" t="n">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="L3" t="n">
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="M3" t="n">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="N3" t="n">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="O3" t="n">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="P3" t="n">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="Q3" t="n">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="R3" t="n">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="S3" t="n">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="T3" t="n">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="U3" t="n">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="V3" t="n">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="W3" t="n">
-        <v>539</v>
+        <v>568</v>
       </c>
       <c r="X3" t="n">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="Y3" t="n">
-        <v>555</v>
+        <v>578</v>
       </c>
       <c r="Z3" t="n">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="AA3" t="n">
         <v>577</v>
       </c>
       <c r="AB3" t="n">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AC3" t="n">
         <v>577</v>
@@ -1054,96 +1030,87 @@
         <v>577</v>
       </c>
       <c r="AH3" t="n">
-        <v>577</v>
+        <v>1836</v>
       </c>
       <c r="AI3" t="n">
-        <v>577</v>
+        <v>3344</v>
       </c>
       <c r="AJ3" t="n">
-        <v>577</v>
+        <v>5236</v>
       </c>
       <c r="AK3" t="n">
-        <v>1836</v>
+        <v>6786</v>
       </c>
       <c r="AL3" t="n">
-        <v>3344</v>
+        <v>6786</v>
       </c>
       <c r="AM3" t="n">
-        <v>5236</v>
+        <v>9571</v>
       </c>
       <c r="AN3" t="n">
-        <v>6786</v>
+        <v>11234</v>
       </c>
       <c r="AO3" t="n">
-        <v>6786</v>
+        <v>12519</v>
       </c>
       <c r="AP3" t="n">
-        <v>9571</v>
+        <v>12713</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11234</v>
+        <v>12764</v>
       </c>
       <c r="AR3" t="n">
-        <v>12519</v>
+        <v>14492</v>
       </c>
       <c r="AS3" t="n">
-        <v>12713</v>
+        <v>18584</v>
       </c>
       <c r="AT3" t="n">
-        <v>12764</v>
+        <v>21707</v>
       </c>
       <c r="AU3" t="n">
-        <v>14492</v>
+        <v>26055</v>
       </c>
       <c r="AV3" t="n">
-        <v>18584</v>
+        <v>26652</v>
       </c>
       <c r="AW3" t="n">
-        <v>21707</v>
+        <v>31410</v>
       </c>
       <c r="AX3" t="n">
-        <v>26055</v>
+        <v>26877</v>
       </c>
       <c r="AY3" t="n">
-        <v>26652</v>
+        <v>26615</v>
       </c>
       <c r="AZ3" t="n">
-        <v>31410</v>
+        <v>26033</v>
       </c>
       <c r="BA3" t="n">
-        <v>26877</v>
+        <v>35705</v>
       </c>
       <c r="BB3" t="n">
-        <v>26615</v>
+        <v>35113</v>
       </c>
       <c r="BC3" t="n">
-        <v>26033</v>
+        <v>36171</v>
       </c>
       <c r="BD3" t="n">
-        <v>35705</v>
+        <v>34337</v>
       </c>
       <c r="BE3" t="n">
-        <v>35113</v>
+        <v>37203</v>
       </c>
       <c r="BF3" t="n">
-        <v>36171</v>
+        <v>27867</v>
       </c>
       <c r="BG3" t="n">
-        <v>34337</v>
+        <v>27495</v>
       </c>
       <c r="BH3" t="n">
-        <v>37203</v>
+        <v>25307</v>
       </c>
       <c r="BI3" t="n">
-        <v>27867</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>27495</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>25307</v>
-      </c>
-      <c r="BL3" t="n">
         <v>20523</v>
       </c>
     </row>
@@ -1250,96 +1217,87 @@
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1836</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>3099</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>4991</v>
       </c>
       <c r="AK4" t="n">
-        <v>1836</v>
+        <v>6785</v>
       </c>
       <c r="AL4" t="n">
-        <v>3099</v>
+        <v>6785</v>
       </c>
       <c r="AM4" t="n">
-        <v>4991</v>
+        <v>9569</v>
       </c>
       <c r="AN4" t="n">
-        <v>6785</v>
+        <v>6419</v>
       </c>
       <c r="AO4" t="n">
-        <v>6785</v>
+        <v>7789</v>
       </c>
       <c r="AP4" t="n">
-        <v>9569</v>
+        <v>8459</v>
       </c>
       <c r="AQ4" t="n">
-        <v>6419</v>
+        <v>9411</v>
       </c>
       <c r="AR4" t="n">
-        <v>7789</v>
+        <v>11170</v>
       </c>
       <c r="AS4" t="n">
-        <v>8459</v>
+        <v>12733</v>
       </c>
       <c r="AT4" t="n">
-        <v>9411</v>
+        <v>13567</v>
       </c>
       <c r="AU4" t="n">
-        <v>11170</v>
+        <v>14301</v>
       </c>
       <c r="AV4" t="n">
-        <v>12733</v>
+        <v>14791</v>
       </c>
       <c r="AW4" t="n">
-        <v>13567</v>
+        <v>14349</v>
       </c>
       <c r="AX4" t="n">
-        <v>14301</v>
+        <v>13462</v>
       </c>
       <c r="AY4" t="n">
-        <v>14791</v>
+        <v>15481</v>
       </c>
       <c r="AZ4" t="n">
-        <v>14349</v>
+        <v>17887</v>
       </c>
       <c r="BA4" t="n">
-        <v>13462</v>
+        <v>18256</v>
       </c>
       <c r="BB4" t="n">
-        <v>15481</v>
+        <v>20638</v>
       </c>
       <c r="BC4" t="n">
-        <v>17887</v>
+        <v>22777</v>
       </c>
       <c r="BD4" t="n">
-        <v>18256</v>
+        <v>23650</v>
       </c>
       <c r="BE4" t="n">
-        <v>20638</v>
+        <v>26136</v>
       </c>
       <c r="BF4" t="n">
-        <v>22777</v>
+        <v>18358</v>
       </c>
       <c r="BG4" t="n">
-        <v>23650</v>
+        <v>20585</v>
       </c>
       <c r="BH4" t="n">
-        <v>26136</v>
+        <v>19559</v>
       </c>
       <c r="BI4" t="n">
-        <v>18358</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>20585</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>19559</v>
-      </c>
-      <c r="BL4" t="n">
         <v>8354</v>
       </c>
     </row>
@@ -1529,15 +1487,6 @@
       <c r="BI5" t="n">
         <v>0</v>
       </c>
-      <c r="BJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1546,31 +1495,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="D6" t="n">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F6" t="n">
         <v>349</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="H6" t="n">
-        <v>349</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>349</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1660,78 +1609,69 @@
         <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>4812</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>4727</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>4250</v>
       </c>
       <c r="AQ6" t="n">
-        <v>4812</v>
+        <v>3306</v>
       </c>
       <c r="AR6" t="n">
-        <v>4727</v>
+        <v>3212</v>
       </c>
       <c r="AS6" t="n">
-        <v>4250</v>
+        <v>5783</v>
       </c>
       <c r="AT6" t="n">
-        <v>3306</v>
+        <v>8040</v>
       </c>
       <c r="AU6" t="n">
-        <v>3212</v>
+        <v>11583</v>
       </c>
       <c r="AV6" t="n">
-        <v>5783</v>
+        <v>11490</v>
       </c>
       <c r="AW6" t="n">
-        <v>8040</v>
+        <v>16987</v>
       </c>
       <c r="AX6" t="n">
-        <v>11583</v>
+        <v>13322</v>
       </c>
       <c r="AY6" t="n">
-        <v>11490</v>
+        <v>11030</v>
       </c>
       <c r="AZ6" t="n">
-        <v>16987</v>
+        <v>7496</v>
       </c>
       <c r="BA6" t="n">
-        <v>13322</v>
+        <v>16623</v>
       </c>
       <c r="BB6" t="n">
-        <v>11030</v>
+        <v>13720</v>
       </c>
       <c r="BC6" t="n">
-        <v>7496</v>
+        <v>12167</v>
       </c>
       <c r="BD6" t="n">
-        <v>16623</v>
+        <v>9181</v>
       </c>
       <c r="BE6" t="n">
-        <v>13720</v>
+        <v>10570</v>
       </c>
       <c r="BF6" t="n">
-        <v>12167</v>
+        <v>8456</v>
       </c>
       <c r="BG6" t="n">
-        <v>9181</v>
+        <v>5944</v>
       </c>
       <c r="BH6" t="n">
-        <v>10570</v>
+        <v>4503</v>
       </c>
       <c r="BI6" t="n">
-        <v>8456</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>5944</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>4503</v>
-      </c>
-      <c r="BL6" t="n">
         <v>10142</v>
       </c>
     </row>
@@ -1919,15 +1859,6 @@
         <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL7" t="n">
         <v>585</v>
       </c>
     </row>
@@ -2117,15 +2048,6 @@
       <c r="BI8" t="n">
         <v>0</v>
       </c>
-      <c r="BJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2152,67 +2074,67 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>436</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="K9" t="n">
-        <v>428</v>
+        <v>469</v>
       </c>
       <c r="L9" t="n">
-        <v>436</v>
+        <v>477</v>
       </c>
       <c r="M9" t="n">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="N9" t="n">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="O9" t="n">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="P9" t="n">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="Q9" t="n">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="R9" t="n">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="S9" t="n">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="T9" t="n">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="U9" t="n">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="V9" t="n">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="W9" t="n">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="X9" t="n">
-        <v>538</v>
+        <v>564</v>
       </c>
       <c r="Y9" t="n">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="Z9" t="n">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="AA9" t="n">
         <v>564</v>
       </c>
       <c r="AB9" t="n">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AC9" t="n">
         <v>564</v>
@@ -2230,96 +2152,87 @@
         <v>564</v>
       </c>
       <c r="AH9" t="n">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>564</v>
+        <v>245</v>
       </c>
       <c r="AJ9" t="n">
-        <v>564</v>
+        <v>245</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9" t="n">
-        <v>245</v>
+        <v>1</v>
       </c>
       <c r="AM9" t="n">
-        <v>245</v>
+        <v>2</v>
       </c>
       <c r="AN9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ9" t="n">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="AR9" t="n">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="AS9" t="n">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="AT9" t="n">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="AU9" t="n">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="AV9" t="n">
-        <v>68</v>
+        <v>371</v>
       </c>
       <c r="AW9" t="n">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="AX9" t="n">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="AY9" t="n">
-        <v>371</v>
+        <v>104</v>
       </c>
       <c r="AZ9" t="n">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="BA9" t="n">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="BB9" t="n">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="BC9" t="n">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="BD9" t="n">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="BE9" t="n">
-        <v>141</v>
+        <v>204</v>
       </c>
       <c r="BF9" t="n">
-        <v>144</v>
+        <v>391</v>
       </c>
       <c r="BG9" t="n">
-        <v>175</v>
+        <v>477</v>
       </c>
       <c r="BH9" t="n">
-        <v>204</v>
+        <v>557</v>
       </c>
       <c r="BI9" t="n">
-        <v>391</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>477</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>557</v>
-      </c>
-      <c r="BL9" t="n">
         <v>956</v>
       </c>
     </row>
@@ -2480,42 +2393,33 @@
         <v>0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>541</v>
       </c>
       <c r="BA10" t="n">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="BC10" t="n">
-        <v>541</v>
+        <v>1083</v>
       </c>
       <c r="BD10" t="n">
-        <v>713</v>
+        <v>1331</v>
       </c>
       <c r="BE10" t="n">
-        <v>614</v>
+        <v>293</v>
       </c>
       <c r="BF10" t="n">
-        <v>1083</v>
+        <v>662</v>
       </c>
       <c r="BG10" t="n">
-        <v>1331</v>
+        <v>489</v>
       </c>
       <c r="BH10" t="n">
-        <v>293</v>
+        <v>688</v>
       </c>
       <c r="BI10" t="n">
-        <v>662</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>489</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>688</v>
-      </c>
-      <c r="BL10" t="n">
         <v>443</v>
       </c>
     </row>
@@ -2529,10 +2433,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -2541,16 +2445,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>349</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K11" t="n">
         <v>9</v>
@@ -2559,7 +2463,7 @@
         <v>9</v>
       </c>
       <c r="M11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N11" t="n">
         <v>9</v>
@@ -2568,7 +2472,7 @@
         <v>9</v>
       </c>
       <c r="P11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q11" t="n">
         <v>9</v>
@@ -2589,13 +2493,13 @@
         <v>9</v>
       </c>
       <c r="W11" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="X11" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
         <v>13</v>
@@ -2622,13 +2526,13 @@
         <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
@@ -2661,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV11" t="n">
         <v>0</v>
@@ -2670,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY11" t="n">
         <v>0</v>
@@ -2703,15 +2607,6 @@
         <v>0</v>
       </c>
       <c r="BI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL11" t="n">
         <v>43</v>
       </c>
     </row>
@@ -2899,15 +2794,6 @@
         <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL12" t="n">
         <v>20049</v>
       </c>
     </row>
@@ -3097,15 +2983,6 @@
       <c r="BI13" t="n">
         <v>0</v>
       </c>
-      <c r="BJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3293,15 +3170,6 @@
       <c r="BI14" t="n">
         <v>0</v>
       </c>
-      <c r="BJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3489,15 +3357,6 @@
       <c r="BI15" t="n">
         <v>0</v>
       </c>
-      <c r="BJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3685,15 +3544,6 @@
       <c r="BI16" t="n">
         <v>0</v>
       </c>
-      <c r="BJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3881,15 +3731,6 @@
       <c r="BI17" t="n">
         <v>0</v>
       </c>
-      <c r="BJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4077,15 +3918,6 @@
       <c r="BI18" t="n">
         <v>0</v>
       </c>
-      <c r="BJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4271,15 +4103,6 @@
         <v>0</v>
       </c>
       <c r="BI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL19" t="n">
         <v>20049</v>
       </c>
     </row>
@@ -4469,15 +4292,6 @@
       <c r="BI20" t="n">
         <v>0</v>
       </c>
-      <c r="BJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4665,15 +4479,6 @@
       <c r="BI21" t="n">
         <v>0</v>
       </c>
-      <c r="BJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4763,13 +4568,13 @@
         <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF22" t="n">
         <v>10</v>
@@ -4778,13 +4583,13 @@
         <v>10</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
         <v>0</v>
@@ -4859,15 +4664,6 @@
         <v>0</v>
       </c>
       <c r="BI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4986,84 +4782,75 @@
         <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>2</v>
+        <v>156</v>
       </c>
       <c r="AP23" t="n">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="AQ23" t="n">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="AR23" t="n">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="AS23" t="n">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="AT23" t="n">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="AU23" t="n">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="AV23" t="n">
-        <v>132</v>
+        <v>593</v>
       </c>
       <c r="AW23" t="n">
-        <v>121</v>
+        <v>580</v>
       </c>
       <c r="AX23" t="n">
-        <v>108</v>
+        <v>582</v>
       </c>
       <c r="AY23" t="n">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="AZ23" t="n">
-        <v>580</v>
+        <v>702</v>
       </c>
       <c r="BA23" t="n">
-        <v>582</v>
+        <v>767</v>
       </c>
       <c r="BB23" t="n">
-        <v>571</v>
+        <v>776</v>
       </c>
       <c r="BC23" t="n">
-        <v>702</v>
+        <v>726</v>
       </c>
       <c r="BD23" t="n">
-        <v>767</v>
+        <v>704</v>
       </c>
       <c r="BE23" t="n">
-        <v>776</v>
+        <v>684</v>
       </c>
       <c r="BF23" t="n">
-        <v>726</v>
+        <v>635</v>
       </c>
       <c r="BG23" t="n">
-        <v>704</v>
+        <v>585</v>
       </c>
       <c r="BH23" t="n">
-        <v>684</v>
+        <v>538</v>
       </c>
       <c r="BI23" t="n">
-        <v>635</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>585</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>538</v>
-      </c>
-      <c r="BL23" t="n">
         <v>1048</v>
       </c>
     </row>
@@ -5245,21 +5032,12 @@
         <v>0</v>
       </c>
       <c r="BG24" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="BH24" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="BI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ24" t="n">
-        <v>33</v>
-      </c>
-      <c r="BK24" t="n">
-        <v>101</v>
-      </c>
-      <c r="BL24" t="n">
         <v>11253</v>
       </c>
     </row>
@@ -5449,15 +5227,6 @@
       <c r="BI25" t="n">
         <v>0</v>
       </c>
-      <c r="BJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5466,94 +5235,94 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="C26" t="n">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="D26" t="n">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="E26" t="n">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F26" t="n">
         <v>349</v>
       </c>
       <c r="G26" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H26" t="n">
-        <v>349</v>
+        <v>437</v>
       </c>
       <c r="I26" t="n">
-        <v>349</v>
+        <v>445</v>
       </c>
       <c r="J26" t="n">
-        <v>350</v>
+        <v>468</v>
       </c>
       <c r="K26" t="n">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="L26" t="n">
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="M26" t="n">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="N26" t="n">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="O26" t="n">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="P26" t="n">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="Q26" t="n">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="R26" t="n">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="S26" t="n">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="T26" t="n">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="U26" t="n">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="V26" t="n">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="W26" t="n">
-        <v>539</v>
+        <v>568</v>
       </c>
       <c r="X26" t="n">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="Y26" t="n">
-        <v>555</v>
+        <v>578</v>
       </c>
       <c r="Z26" t="n">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="AA26" t="n">
         <v>577</v>
       </c>
       <c r="AB26" t="n">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AC26" t="n">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="AD26" t="n">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="AE26" t="n">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="AF26" t="n">
         <v>587</v>
@@ -5562,96 +5331,87 @@
         <v>587</v>
       </c>
       <c r="AH26" t="n">
-        <v>587</v>
+        <v>1836</v>
       </c>
       <c r="AI26" t="n">
-        <v>587</v>
+        <v>3344</v>
       </c>
       <c r="AJ26" t="n">
-        <v>587</v>
+        <v>5236</v>
       </c>
       <c r="AK26" t="n">
-        <v>1836</v>
+        <v>6786</v>
       </c>
       <c r="AL26" t="n">
-        <v>3344</v>
+        <v>6788</v>
       </c>
       <c r="AM26" t="n">
-        <v>5236</v>
+        <v>9575</v>
       </c>
       <c r="AN26" t="n">
-        <v>6786</v>
+        <v>11238</v>
       </c>
       <c r="AO26" t="n">
-        <v>6788</v>
+        <v>12675</v>
       </c>
       <c r="AP26" t="n">
-        <v>9575</v>
+        <v>12863</v>
       </c>
       <c r="AQ26" t="n">
-        <v>11238</v>
+        <v>12903</v>
       </c>
       <c r="AR26" t="n">
-        <v>12675</v>
+        <v>14624</v>
       </c>
       <c r="AS26" t="n">
-        <v>12863</v>
+        <v>18716</v>
       </c>
       <c r="AT26" t="n">
-        <v>12903</v>
+        <v>21828</v>
       </c>
       <c r="AU26" t="n">
-        <v>14624</v>
+        <v>26163</v>
       </c>
       <c r="AV26" t="n">
-        <v>18716</v>
+        <v>27245</v>
       </c>
       <c r="AW26" t="n">
-        <v>21828</v>
+        <v>31990</v>
       </c>
       <c r="AX26" t="n">
-        <v>26163</v>
+        <v>27459</v>
       </c>
       <c r="AY26" t="n">
-        <v>27245</v>
+        <v>27186</v>
       </c>
       <c r="AZ26" t="n">
-        <v>31990</v>
+        <v>26735</v>
       </c>
       <c r="BA26" t="n">
-        <v>27459</v>
+        <v>36472</v>
       </c>
       <c r="BB26" t="n">
-        <v>27186</v>
+        <v>35889</v>
       </c>
       <c r="BC26" t="n">
-        <v>26735</v>
+        <v>36897</v>
       </c>
       <c r="BD26" t="n">
-        <v>36472</v>
+        <v>35041</v>
       </c>
       <c r="BE26" t="n">
-        <v>35889</v>
+        <v>37887</v>
       </c>
       <c r="BF26" t="n">
-        <v>36897</v>
+        <v>28502</v>
       </c>
       <c r="BG26" t="n">
-        <v>35041</v>
+        <v>28113</v>
       </c>
       <c r="BH26" t="n">
-        <v>37887</v>
+        <v>25946</v>
       </c>
       <c r="BI26" t="n">
-        <v>28502</v>
-      </c>
-      <c r="BJ26" t="n">
-        <v>28113</v>
-      </c>
-      <c r="BK26" t="n">
-        <v>25946</v>
-      </c>
-      <c r="BL26" t="n">
         <v>52873</v>
       </c>
     </row>
@@ -5662,192 +5422,183 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5151</v>
+        <v>5596</v>
       </c>
       <c r="C27" t="n">
-        <v>5395</v>
+        <v>5673</v>
       </c>
       <c r="D27" t="n">
-        <v>5500</v>
+        <v>5754</v>
       </c>
       <c r="E27" t="n">
-        <v>5596</v>
+        <v>5851</v>
       </c>
       <c r="F27" t="n">
-        <v>5673</v>
+        <v>5881</v>
       </c>
       <c r="G27" t="n">
-        <v>5754</v>
+        <v>5951</v>
       </c>
       <c r="H27" t="n">
-        <v>5851</v>
+        <v>5814</v>
       </c>
       <c r="I27" t="n">
-        <v>5881</v>
+        <v>5955</v>
       </c>
       <c r="J27" t="n">
-        <v>5951</v>
+        <v>6060</v>
       </c>
       <c r="K27" t="n">
-        <v>5814</v>
+        <v>6124</v>
       </c>
       <c r="L27" t="n">
-        <v>5955</v>
+        <v>5923</v>
       </c>
       <c r="M27" t="n">
-        <v>6060</v>
+        <v>6037</v>
       </c>
       <c r="N27" t="n">
-        <v>6124</v>
+        <v>6162</v>
       </c>
       <c r="O27" t="n">
-        <v>5923</v>
+        <v>6294</v>
       </c>
       <c r="P27" t="n">
-        <v>6037</v>
+        <v>6451</v>
       </c>
       <c r="Q27" t="n">
-        <v>6162</v>
+        <v>6621</v>
       </c>
       <c r="R27" t="n">
-        <v>6294</v>
+        <v>6697</v>
       </c>
       <c r="S27" t="n">
-        <v>6451</v>
+        <v>6792</v>
       </c>
       <c r="T27" t="n">
-        <v>6621</v>
+        <v>6993</v>
       </c>
       <c r="U27" t="n">
-        <v>6697</v>
+        <v>7234</v>
       </c>
       <c r="V27" t="n">
-        <v>6792</v>
+        <v>7404</v>
       </c>
       <c r="W27" t="n">
-        <v>6993</v>
+        <v>7562</v>
       </c>
       <c r="X27" t="n">
-        <v>7234</v>
+        <v>7700</v>
       </c>
       <c r="Y27" t="n">
-        <v>7404</v>
+        <v>7715</v>
       </c>
       <c r="Z27" t="n">
-        <v>7562</v>
+        <v>8571</v>
       </c>
       <c r="AA27" t="n">
-        <v>7700</v>
+        <v>8513</v>
       </c>
       <c r="AB27" t="n">
-        <v>7715</v>
+        <v>317</v>
       </c>
       <c r="AC27" t="n">
-        <v>8571</v>
+        <v>155</v>
       </c>
       <c r="AD27" t="n">
-        <v>8513</v>
+        <v>81</v>
       </c>
       <c r="AE27" t="n">
-        <v>317</v>
+        <v>44</v>
       </c>
       <c r="AF27" t="n">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="AG27" t="n">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="n">
-        <v>44</v>
+        <v>359</v>
       </c>
       <c r="AI27" t="n">
-        <v>44</v>
+        <v>462</v>
       </c>
       <c r="AJ27" t="n">
-        <v>44</v>
+        <v>530</v>
       </c>
       <c r="AK27" t="n">
-        <v>359</v>
+        <v>210</v>
       </c>
       <c r="AL27" t="n">
-        <v>462</v>
+        <v>212</v>
       </c>
       <c r="AM27" t="n">
-        <v>530</v>
+        <v>134</v>
       </c>
       <c r="AN27" t="n">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="AO27" t="n">
-        <v>212</v>
+        <v>563</v>
       </c>
       <c r="AP27" t="n">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="AQ27" t="n">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="AR27" t="n">
-        <v>563</v>
+        <v>1041</v>
       </c>
       <c r="AS27" t="n">
-        <v>245</v>
+        <v>1238</v>
       </c>
       <c r="AT27" t="n">
-        <v>228</v>
+        <v>1226</v>
       </c>
       <c r="AU27" t="n">
-        <v>1041</v>
+        <v>1110</v>
       </c>
       <c r="AV27" t="n">
-        <v>1238</v>
+        <v>3942</v>
       </c>
       <c r="AW27" t="n">
-        <v>1226</v>
+        <v>7630</v>
       </c>
       <c r="AX27" t="n">
-        <v>1110</v>
+        <v>888</v>
       </c>
       <c r="AY27" t="n">
-        <v>3942</v>
+        <v>567</v>
       </c>
       <c r="AZ27" t="n">
-        <v>7630</v>
+        <v>2335</v>
       </c>
       <c r="BA27" t="n">
-        <v>888</v>
+        <v>3565</v>
       </c>
       <c r="BB27" t="n">
-        <v>567</v>
+        <v>1857</v>
       </c>
       <c r="BC27" t="n">
-        <v>2335</v>
+        <v>1753</v>
       </c>
       <c r="BD27" t="n">
-        <v>3565</v>
+        <v>3254</v>
       </c>
       <c r="BE27" t="n">
-        <v>1857</v>
+        <v>4497</v>
       </c>
       <c r="BF27" t="n">
-        <v>1753</v>
+        <v>817</v>
       </c>
       <c r="BG27" t="n">
-        <v>3254</v>
+        <v>1609</v>
       </c>
       <c r="BH27" t="n">
-        <v>4497</v>
+        <v>826</v>
       </c>
       <c r="BI27" t="n">
-        <v>817</v>
-      </c>
-      <c r="BJ27" t="n">
-        <v>1609</v>
-      </c>
-      <c r="BK27" t="n">
-        <v>826</v>
-      </c>
-      <c r="BL27" t="n">
         <v>2891</v>
       </c>
     </row>
@@ -5876,61 +5627,61 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="K28" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L28" t="n">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="M28" t="n">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="N28" t="n">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="O28" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="P28" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Q28" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R28" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S28" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="T28" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="U28" t="n">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="V28" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="W28" t="n">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="X28" t="n">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="Y28" t="n">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="Z28" t="n">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AA28" t="n">
         <v>106</v>
@@ -5939,13 +5690,13 @@
         <v>106</v>
       </c>
       <c r="AC28" t="n">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="AD28" t="n">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="AE28" t="n">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="AF28" t="n">
         <v>24</v>
@@ -5954,13 +5705,13 @@
         <v>24</v>
       </c>
       <c r="AH28" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI28" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AJ28" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AK28" t="n">
         <v>0</v>
@@ -5969,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AN28" t="n">
         <v>0</v>
@@ -5978,37 +5729,37 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AR28" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AS28" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AT28" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AU28" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AV28" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AW28" t="n">
-        <v>60</v>
+        <v>211</v>
       </c>
       <c r="AX28" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AY28" t="n">
         <v>0</v>
       </c>
       <c r="AZ28" t="n">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="BA28" t="n">
         <v>0</v>
@@ -6035,15 +5786,6 @@
         <v>0</v>
       </c>
       <c r="BI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6060,94 +5802,94 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>367</v>
       </c>
       <c r="G29" t="n">
-        <v>461</v>
+        <v>365</v>
       </c>
       <c r="H29" t="n">
-        <v>426</v>
+        <v>99</v>
       </c>
       <c r="I29" t="n">
-        <v>367</v>
+        <v>102</v>
       </c>
       <c r="J29" t="n">
-        <v>365</v>
+        <v>97</v>
       </c>
       <c r="K29" t="n">
         <v>99</v>
       </c>
       <c r="L29" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M29" t="n">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="N29" t="n">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="O29" t="n">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="P29" t="n">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="Q29" t="n">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="R29" t="n">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="S29" t="n">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="T29" t="n">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="U29" t="n">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="V29" t="n">
-        <v>210</v>
+        <v>281</v>
       </c>
       <c r="W29" t="n">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="X29" t="n">
-        <v>262</v>
+        <v>335</v>
       </c>
       <c r="Y29" t="n">
-        <v>281</v>
+        <v>350</v>
       </c>
       <c r="Z29" t="n">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="AA29" t="n">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="AB29" t="n">
-        <v>350</v>
+        <v>191</v>
       </c>
       <c r="AC29" t="n">
-        <v>349</v>
+        <v>111</v>
       </c>
       <c r="AD29" t="n">
-        <v>291</v>
+        <v>37</v>
       </c>
       <c r="AE29" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AH29" t="n">
         <v>0</v>
@@ -6171,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="AP29" t="n">
         <v>0</v>
@@ -6180,66 +5922,57 @@
         <v>0</v>
       </c>
       <c r="AR29" t="n">
-        <v>365</v>
+        <v>891</v>
       </c>
       <c r="AS29" t="n">
-        <v>0</v>
+        <v>985</v>
       </c>
       <c r="AT29" t="n">
-        <v>0</v>
+        <v>860</v>
       </c>
       <c r="AU29" t="n">
-        <v>891</v>
+        <v>352</v>
       </c>
       <c r="AV29" t="n">
-        <v>985</v>
+        <v>546</v>
       </c>
       <c r="AW29" t="n">
-        <v>860</v>
+        <v>227</v>
       </c>
       <c r="AX29" t="n">
-        <v>352</v>
+        <v>451</v>
       </c>
       <c r="AY29" t="n">
-        <v>546</v>
+        <v>169</v>
       </c>
       <c r="AZ29" t="n">
-        <v>227</v>
+        <v>91</v>
       </c>
       <c r="BA29" t="n">
-        <v>451</v>
+        <v>156</v>
       </c>
       <c r="BB29" t="n">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="BC29" t="n">
-        <v>91</v>
+        <v>189</v>
       </c>
       <c r="BD29" t="n">
-        <v>156</v>
+        <v>397</v>
       </c>
       <c r="BE29" t="n">
-        <v>188</v>
+        <v>555</v>
       </c>
       <c r="BF29" t="n">
-        <v>189</v>
+        <v>319</v>
       </c>
       <c r="BG29" t="n">
-        <v>397</v>
+        <v>299</v>
       </c>
       <c r="BH29" t="n">
-        <v>555</v>
+        <v>334</v>
       </c>
       <c r="BI29" t="n">
-        <v>319</v>
-      </c>
-      <c r="BJ29" t="n">
-        <v>299</v>
-      </c>
-      <c r="BK29" t="n">
-        <v>334</v>
-      </c>
-      <c r="BL29" t="n">
         <v>375</v>
       </c>
     </row>
@@ -6250,76 +5983,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4812</v>
+        <v>5032</v>
       </c>
       <c r="C30" t="n">
-        <v>4842</v>
+        <v>5110</v>
       </c>
       <c r="D30" t="n">
-        <v>4935</v>
+        <v>5194</v>
       </c>
       <c r="E30" t="n">
-        <v>5032</v>
+        <v>5325</v>
       </c>
       <c r="F30" t="n">
-        <v>5110</v>
+        <v>5414</v>
       </c>
       <c r="G30" t="n">
-        <v>5194</v>
+        <v>5488</v>
       </c>
       <c r="H30" t="n">
-        <v>5325</v>
+        <v>263</v>
       </c>
       <c r="I30" t="n">
-        <v>5414</v>
+        <v>5756</v>
       </c>
       <c r="J30" t="n">
-        <v>5488</v>
+        <v>5854</v>
       </c>
       <c r="K30" t="n">
-        <v>263</v>
+        <v>5947</v>
       </c>
       <c r="L30" t="n">
-        <v>5756</v>
+        <v>14</v>
       </c>
       <c r="M30" t="n">
-        <v>5854</v>
+        <v>15</v>
       </c>
       <c r="N30" t="n">
-        <v>5947</v>
+        <v>15</v>
       </c>
       <c r="O30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P30" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>16</v>
+      </c>
+      <c r="R30" t="n">
         <v>15</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="S30" t="n">
         <v>15</v>
-      </c>
-      <c r="R30" t="n">
-        <v>16</v>
-      </c>
-      <c r="S30" t="n">
-        <v>16</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
       </c>
       <c r="U30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V30" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="W30" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="X30" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Y30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z30" t="n">
         <v>20</v>
@@ -6346,96 +6079,87 @@
         <v>20</v>
       </c>
       <c r="AH30" t="n">
-        <v>20</v>
+        <v>359</v>
       </c>
       <c r="AI30" t="n">
-        <v>20</v>
+        <v>462</v>
       </c>
       <c r="AJ30" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="AL30" t="n">
-        <v>462</v>
+        <v>0</v>
       </c>
       <c r="AM30" t="n">
         <v>0</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AP30" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AQ30" t="n">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="AR30" t="n">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="AS30" t="n">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="AT30" t="n">
-        <v>50</v>
+        <v>262</v>
       </c>
       <c r="AU30" t="n">
-        <v>72</v>
+        <v>667</v>
       </c>
       <c r="AV30" t="n">
-        <v>169</v>
+        <v>406</v>
       </c>
       <c r="AW30" t="n">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="AX30" t="n">
-        <v>667</v>
+        <v>294</v>
       </c>
       <c r="AY30" t="n">
-        <v>406</v>
+        <v>220</v>
       </c>
       <c r="AZ30" t="n">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="BA30" t="n">
-        <v>294</v>
+        <v>917</v>
       </c>
       <c r="BB30" t="n">
-        <v>220</v>
+        <v>666</v>
       </c>
       <c r="BC30" t="n">
-        <v>189</v>
+        <v>561</v>
       </c>
       <c r="BD30" t="n">
-        <v>917</v>
+        <v>298</v>
       </c>
       <c r="BE30" t="n">
-        <v>666</v>
+        <v>461</v>
       </c>
       <c r="BF30" t="n">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="BG30" t="n">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="BH30" t="n">
-        <v>461</v>
+        <v>332</v>
       </c>
       <c r="BI30" t="n">
-        <v>308</v>
-      </c>
-      <c r="BJ30" t="n">
-        <v>248</v>
-      </c>
-      <c r="BK30" t="n">
-        <v>332</v>
-      </c>
-      <c r="BL30" t="n">
         <v>1352</v>
       </c>
     </row>
@@ -6625,15 +6349,6 @@
       <c r="BI31" t="n">
         <v>0</v>
       </c>
-      <c r="BJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL31" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6642,13 +6357,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -6660,25 +6375,25 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K32" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="L32" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -6696,31 +6411,31 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="W32" t="n">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="X32" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Y32" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Z32" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="AC32" t="n">
         <v>0</v>
@@ -6753,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AN32" t="n">
         <v>0</v>
@@ -6762,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AQ32" t="n">
         <v>0</v>
@@ -6819,15 +6534,6 @@
         <v>0</v>
       </c>
       <c r="BI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6976,54 +6682,45 @@
         <v>0</v>
       </c>
       <c r="AV33" t="n">
-        <v>0</v>
+        <v>2928</v>
       </c>
       <c r="AW33" t="n">
-        <v>0</v>
+        <v>6270</v>
       </c>
       <c r="AX33" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AY33" t="n">
-        <v>2928</v>
+        <v>8</v>
       </c>
       <c r="AZ33" t="n">
-        <v>6270</v>
+        <v>1450</v>
       </c>
       <c r="BA33" t="n">
-        <v>8</v>
+        <v>1450</v>
       </c>
       <c r="BB33" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC33" t="n">
-        <v>1450</v>
+        <v>10</v>
       </c>
       <c r="BD33" t="n">
-        <v>1450</v>
+        <v>2391</v>
       </c>
       <c r="BE33" t="n">
-        <v>10</v>
+        <v>2391</v>
       </c>
       <c r="BF33" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="BG33" t="n">
-        <v>2391</v>
+        <v>22</v>
       </c>
       <c r="BH33" t="n">
-        <v>2391</v>
+        <v>22</v>
       </c>
       <c r="BI33" t="n">
-        <v>22</v>
-      </c>
-      <c r="BJ33" t="n">
-        <v>22</v>
-      </c>
-      <c r="BK33" t="n">
-        <v>22</v>
-      </c>
-      <c r="BL33" t="n">
         <v>22</v>
       </c>
     </row>
@@ -7034,91 +6731,91 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>334</v>
+        <v>503</v>
       </c>
       <c r="C34" t="n">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E34" t="n">
-        <v>503</v>
+        <v>38</v>
       </c>
       <c r="F34" t="n">
-        <v>502</v>
+        <v>38</v>
       </c>
       <c r="G34" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H34" t="n">
-        <v>38</v>
+        <v>5356</v>
       </c>
       <c r="I34" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>5356</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>5802</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>5902</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>5999</v>
       </c>
       <c r="O34" t="n">
-        <v>5802</v>
+        <v>6108</v>
       </c>
       <c r="P34" t="n">
-        <v>5902</v>
+        <v>6240</v>
       </c>
       <c r="Q34" t="n">
-        <v>5999</v>
+        <v>6370</v>
       </c>
       <c r="R34" t="n">
-        <v>6108</v>
+        <v>6472</v>
       </c>
       <c r="S34" t="n">
-        <v>6240</v>
+        <v>6554</v>
       </c>
       <c r="T34" t="n">
-        <v>6370</v>
+        <v>6693</v>
       </c>
       <c r="U34" t="n">
-        <v>6472</v>
+        <v>6852</v>
       </c>
       <c r="V34" t="n">
-        <v>6554</v>
+        <v>6975</v>
       </c>
       <c r="W34" t="n">
-        <v>6693</v>
+        <v>7047</v>
       </c>
       <c r="X34" t="n">
-        <v>6852</v>
+        <v>7178</v>
       </c>
       <c r="Y34" t="n">
-        <v>6975</v>
+        <v>7178</v>
       </c>
       <c r="Z34" t="n">
-        <v>7047</v>
+        <v>8096</v>
       </c>
       <c r="AA34" t="n">
-        <v>7178</v>
+        <v>8096</v>
       </c>
       <c r="AB34" t="n">
-        <v>7178</v>
+        <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>8096</v>
+        <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>8096</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
         <v>0</v>
@@ -7175,7 +6872,7 @@
         <v>0</v>
       </c>
       <c r="AW34" t="n">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="AX34" t="n">
         <v>0</v>
@@ -7184,42 +6881,33 @@
         <v>0</v>
       </c>
       <c r="AZ34" t="n">
-        <v>680</v>
+        <v>436</v>
       </c>
       <c r="BA34" t="n">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="BB34" t="n">
-        <v>0</v>
+        <v>861</v>
       </c>
       <c r="BC34" t="n">
-        <v>436</v>
+        <v>861</v>
       </c>
       <c r="BD34" t="n">
-        <v>886</v>
+        <v>36</v>
       </c>
       <c r="BE34" t="n">
-        <v>861</v>
+        <v>958</v>
       </c>
       <c r="BF34" t="n">
-        <v>861</v>
+        <v>36</v>
       </c>
       <c r="BG34" t="n">
+        <v>908</v>
+      </c>
+      <c r="BH34" t="n">
         <v>36</v>
       </c>
-      <c r="BH34" t="n">
-        <v>958</v>
-      </c>
       <c r="BI34" t="n">
-        <v>36</v>
-      </c>
-      <c r="BJ34" t="n">
-        <v>908</v>
-      </c>
-      <c r="BK34" t="n">
-        <v>36</v>
-      </c>
-      <c r="BL34" t="n">
         <v>958</v>
       </c>
     </row>
@@ -7230,7 +6918,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="C35" t="n">
         <v>61</v>
@@ -7239,160 +6927,160 @@
         <v>61</v>
       </c>
       <c r="E35" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F35" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G35" t="n">
         <v>61</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>154</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>144</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>134</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>42</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>43</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>44</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>45</v>
+      </c>
+      <c r="AV35" t="n">
         <v>62</v>
       </c>
-      <c r="I35" t="n">
-        <v>62</v>
-      </c>
-      <c r="J35" t="n">
-        <v>61</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>154</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>144</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>134</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>42</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>43</v>
-      </c>
       <c r="AW35" t="n">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="AX35" t="n">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="AY35" t="n">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="AZ35" t="n">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="BA35" t="n">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="BB35" t="n">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="BC35" t="n">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="BD35" t="n">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="BE35" t="n">
         <v>132</v>
@@ -7404,18 +7092,9 @@
         <v>132</v>
       </c>
       <c r="BH35" t="n">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="BI35" t="n">
-        <v>132</v>
-      </c>
-      <c r="BJ35" t="n">
-        <v>132</v>
-      </c>
-      <c r="BK35" t="n">
-        <v>102</v>
-      </c>
-      <c r="BL35" t="n">
         <v>184</v>
       </c>
     </row>
@@ -7605,15 +7284,6 @@
       <c r="BI36" t="n">
         <v>0</v>
       </c>
-      <c r="BJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7622,192 +7292,183 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>14323</v>
+        <v>14730</v>
       </c>
       <c r="C37" t="n">
-        <v>14533</v>
+        <v>14831</v>
       </c>
       <c r="D37" t="n">
-        <v>14609</v>
+        <v>14928</v>
       </c>
       <c r="E37" t="n">
-        <v>14730</v>
+        <v>15121</v>
       </c>
       <c r="F37" t="n">
-        <v>14831</v>
+        <v>15302</v>
       </c>
       <c r="G37" t="n">
-        <v>14928</v>
+        <v>15426</v>
       </c>
       <c r="H37" t="n">
-        <v>15121</v>
+        <v>15643</v>
       </c>
       <c r="I37" t="n">
-        <v>15302</v>
+        <v>15740</v>
       </c>
       <c r="J37" t="n">
-        <v>15426</v>
+        <v>15852</v>
       </c>
       <c r="K37" t="n">
-        <v>15643</v>
+        <v>15942</v>
       </c>
       <c r="L37" t="n">
-        <v>15740</v>
+        <v>16052</v>
       </c>
       <c r="M37" t="n">
-        <v>15852</v>
+        <v>16161</v>
       </c>
       <c r="N37" t="n">
-        <v>15942</v>
+        <v>16232</v>
       </c>
       <c r="O37" t="n">
-        <v>16052</v>
+        <v>16291</v>
       </c>
       <c r="P37" t="n">
-        <v>16161</v>
+        <v>17384</v>
       </c>
       <c r="Q37" t="n">
-        <v>16232</v>
+        <v>17667</v>
       </c>
       <c r="R37" t="n">
-        <v>16291</v>
+        <v>18004</v>
       </c>
       <c r="S37" t="n">
-        <v>17384</v>
+        <v>18214</v>
       </c>
       <c r="T37" t="n">
-        <v>17667</v>
+        <v>491</v>
       </c>
       <c r="U37" t="n">
-        <v>18004</v>
+        <v>640</v>
       </c>
       <c r="V37" t="n">
-        <v>18214</v>
+        <v>733</v>
       </c>
       <c r="W37" t="n">
-        <v>491</v>
+        <v>794</v>
       </c>
       <c r="X37" t="n">
-        <v>640</v>
+        <v>857</v>
       </c>
       <c r="Y37" t="n">
-        <v>733</v>
+        <v>857</v>
       </c>
       <c r="Z37" t="n">
-        <v>794</v>
+        <v>32</v>
       </c>
       <c r="AA37" t="n">
-        <v>857</v>
+        <v>46</v>
       </c>
       <c r="AB37" t="n">
-        <v>857</v>
+        <v>8245</v>
       </c>
       <c r="AC37" t="n">
-        <v>32</v>
+        <v>8420</v>
       </c>
       <c r="AD37" t="n">
-        <v>46</v>
+        <v>8508</v>
       </c>
       <c r="AE37" t="n">
-        <v>8245</v>
+        <v>8595</v>
       </c>
       <c r="AF37" t="n">
-        <v>8420</v>
+        <v>8674</v>
       </c>
       <c r="AG37" t="n">
-        <v>8508</v>
+        <v>8772</v>
       </c>
       <c r="AH37" t="n">
-        <v>8595</v>
+        <v>8772</v>
       </c>
       <c r="AI37" t="n">
-        <v>8674</v>
+        <v>8772</v>
       </c>
       <c r="AJ37" t="n">
         <v>8772</v>
       </c>
       <c r="AK37" t="n">
-        <v>8772</v>
+        <v>9192</v>
       </c>
       <c r="AL37" t="n">
-        <v>8772</v>
+        <v>8075</v>
       </c>
       <c r="AM37" t="n">
-        <v>8772</v>
+        <v>8075</v>
       </c>
       <c r="AN37" t="n">
-        <v>9192</v>
+        <v>8125</v>
       </c>
       <c r="AO37" t="n">
-        <v>8075</v>
+        <v>8125</v>
       </c>
       <c r="AP37" t="n">
-        <v>8075</v>
+        <v>8125</v>
       </c>
       <c r="AQ37" t="n">
-        <v>8125</v>
+        <v>8319</v>
       </c>
       <c r="AR37" t="n">
-        <v>8125</v>
+        <v>8456</v>
       </c>
       <c r="AS37" t="n">
-        <v>8125</v>
+        <v>8637</v>
       </c>
       <c r="AT37" t="n">
-        <v>8319</v>
+        <v>8364</v>
       </c>
       <c r="AU37" t="n">
-        <v>8456</v>
+        <v>8579</v>
       </c>
       <c r="AV37" t="n">
-        <v>8637</v>
+        <v>8774</v>
       </c>
       <c r="AW37" t="n">
-        <v>8364</v>
+        <v>8859</v>
       </c>
       <c r="AX37" t="n">
-        <v>8579</v>
+        <v>8808</v>
       </c>
       <c r="AY37" t="n">
-        <v>8774</v>
+        <v>8754</v>
       </c>
       <c r="AZ37" t="n">
-        <v>8859</v>
+        <v>8584</v>
       </c>
       <c r="BA37" t="n">
-        <v>8808</v>
+        <v>8440</v>
       </c>
       <c r="BB37" t="n">
-        <v>8754</v>
+        <v>8403</v>
       </c>
       <c r="BC37" t="n">
-        <v>8584</v>
+        <v>8367</v>
       </c>
       <c r="BD37" t="n">
-        <v>8440</v>
+        <v>8327</v>
       </c>
       <c r="BE37" t="n">
-        <v>8403</v>
+        <v>8288</v>
       </c>
       <c r="BF37" t="n">
-        <v>8367</v>
+        <v>8248</v>
       </c>
       <c r="BG37" t="n">
-        <v>8327</v>
+        <v>8207</v>
       </c>
       <c r="BH37" t="n">
-        <v>8288</v>
+        <v>8196</v>
       </c>
       <c r="BI37" t="n">
-        <v>8248</v>
-      </c>
-      <c r="BJ37" t="n">
-        <v>8207</v>
-      </c>
-      <c r="BK37" t="n">
-        <v>8196</v>
-      </c>
-      <c r="BL37" t="n">
         <v>8375</v>
       </c>
     </row>
@@ -7997,15 +7658,6 @@
       <c r="BI38" t="n">
         <v>0</v>
       </c>
-      <c r="BJ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL38" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8032,109 +7684,109 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>15643</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>15740</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>15852</v>
       </c>
       <c r="K39" t="n">
-        <v>15643</v>
+        <v>15942</v>
       </c>
       <c r="L39" t="n">
-        <v>15740</v>
+        <v>16052</v>
       </c>
       <c r="M39" t="n">
-        <v>15852</v>
+        <v>16161</v>
       </c>
       <c r="N39" t="n">
-        <v>15942</v>
+        <v>16232</v>
       </c>
       <c r="O39" t="n">
-        <v>16052</v>
+        <v>16291</v>
       </c>
       <c r="P39" t="n">
-        <v>16161</v>
+        <v>17384</v>
       </c>
       <c r="Q39" t="n">
-        <v>16232</v>
+        <v>17667</v>
       </c>
       <c r="R39" t="n">
-        <v>16291</v>
+        <v>18004</v>
       </c>
       <c r="S39" t="n">
-        <v>17384</v>
+        <v>18214</v>
       </c>
       <c r="T39" t="n">
-        <v>17667</v>
+        <v>491</v>
       </c>
       <c r="U39" t="n">
-        <v>18004</v>
+        <v>640</v>
       </c>
       <c r="V39" t="n">
-        <v>18214</v>
+        <v>733</v>
       </c>
       <c r="W39" t="n">
-        <v>491</v>
+        <v>794</v>
       </c>
       <c r="X39" t="n">
-        <v>640</v>
+        <v>857</v>
       </c>
       <c r="Y39" t="n">
-        <v>733</v>
+        <v>857</v>
       </c>
       <c r="Z39" t="n">
-        <v>794</v>
+        <v>32</v>
       </c>
       <c r="AA39" t="n">
-        <v>857</v>
+        <v>46</v>
       </c>
       <c r="AB39" t="n">
-        <v>857</v>
+        <v>8245</v>
       </c>
       <c r="AC39" t="n">
-        <v>32</v>
+        <v>8420</v>
       </c>
       <c r="AD39" t="n">
-        <v>46</v>
+        <v>8508</v>
       </c>
       <c r="AE39" t="n">
-        <v>8245</v>
+        <v>8595</v>
       </c>
       <c r="AF39" t="n">
-        <v>8420</v>
+        <v>8674</v>
       </c>
       <c r="AG39" t="n">
-        <v>8508</v>
+        <v>8772</v>
       </c>
       <c r="AH39" t="n">
-        <v>8595</v>
+        <v>8772</v>
       </c>
       <c r="AI39" t="n">
-        <v>8674</v>
+        <v>8772</v>
       </c>
       <c r="AJ39" t="n">
         <v>8772</v>
       </c>
       <c r="AK39" t="n">
-        <v>8772</v>
+        <v>9192</v>
       </c>
       <c r="AL39" t="n">
-        <v>8772</v>
+        <v>8075</v>
       </c>
       <c r="AM39" t="n">
-        <v>8772</v>
+        <v>8075</v>
       </c>
       <c r="AN39" t="n">
-        <v>9192</v>
+        <v>8125</v>
       </c>
       <c r="AO39" t="n">
-        <v>8075</v>
+        <v>8125</v>
       </c>
       <c r="AP39" t="n">
-        <v>8075</v>
+        <v>8125</v>
       </c>
       <c r="AQ39" t="n">
         <v>8125</v>
@@ -8152,13 +7804,13 @@
         <v>8125</v>
       </c>
       <c r="AV39" t="n">
-        <v>8125</v>
+        <v>8075</v>
       </c>
       <c r="AW39" t="n">
-        <v>8125</v>
+        <v>8075</v>
       </c>
       <c r="AX39" t="n">
-        <v>8125</v>
+        <v>8075</v>
       </c>
       <c r="AY39" t="n">
         <v>8075</v>
@@ -8191,15 +7843,6 @@
         <v>8075</v>
       </c>
       <c r="BI39" t="n">
-        <v>8075</v>
-      </c>
-      <c r="BJ39" t="n">
-        <v>8075</v>
-      </c>
-      <c r="BK39" t="n">
-        <v>8075</v>
-      </c>
-      <c r="BL39" t="n">
         <v>8075</v>
       </c>
     </row>
@@ -8333,69 +7976,60 @@
         <v>0</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="AR40" t="n">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="AS40" t="n">
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="AT40" t="n">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AU40" t="n">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="AV40" t="n">
-        <v>441</v>
+        <v>250</v>
       </c>
       <c r="AW40" t="n">
-        <v>180</v>
+        <v>390</v>
       </c>
       <c r="AX40" t="n">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="AY40" t="n">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="AZ40" t="n">
-        <v>390</v>
+        <v>230</v>
       </c>
       <c r="BA40" t="n">
-        <v>380</v>
+        <v>111</v>
       </c>
       <c r="BB40" t="n">
-        <v>371</v>
+        <v>100</v>
       </c>
       <c r="BC40" t="n">
-        <v>230</v>
+        <v>91</v>
       </c>
       <c r="BD40" t="n">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="BE40" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="BF40" t="n">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="BG40" t="n">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="BH40" t="n">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="BI40" t="n">
-        <v>56</v>
-      </c>
-      <c r="BJ40" t="n">
-        <v>44</v>
-      </c>
-      <c r="BK40" t="n">
-        <v>32</v>
-      </c>
-      <c r="BL40" t="n">
         <v>119</v>
       </c>
     </row>
@@ -8585,15 +8219,6 @@
       <c r="BI41" t="n">
         <v>0</v>
       </c>
-      <c r="BJ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL41" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8602,31 +8227,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>14323</v>
+        <v>14730</v>
       </c>
       <c r="C42" t="n">
-        <v>14533</v>
+        <v>14831</v>
       </c>
       <c r="D42" t="n">
-        <v>14609</v>
+        <v>14928</v>
       </c>
       <c r="E42" t="n">
-        <v>14730</v>
+        <v>15121</v>
       </c>
       <c r="F42" t="n">
-        <v>14831</v>
+        <v>15302</v>
       </c>
       <c r="G42" t="n">
-        <v>14928</v>
+        <v>15426</v>
       </c>
       <c r="H42" t="n">
-        <v>15121</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>15302</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>15426</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -8779,15 +8404,6 @@
         <v>0</v>
       </c>
       <c r="BI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8924,66 +8540,57 @@
         <v>0</v>
       </c>
       <c r="AR43" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="AS43" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AT43" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AU43" t="n">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="AV43" t="n">
-        <v>71</v>
+        <v>449</v>
       </c>
       <c r="AW43" t="n">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AX43" t="n">
-        <v>48</v>
+        <v>353</v>
       </c>
       <c r="AY43" t="n">
-        <v>449</v>
+        <v>308</v>
       </c>
       <c r="AZ43" t="n">
-        <v>394</v>
+        <v>279</v>
       </c>
       <c r="BA43" t="n">
-        <v>353</v>
+        <v>254</v>
       </c>
       <c r="BB43" t="n">
-        <v>308</v>
+        <v>228</v>
       </c>
       <c r="BC43" t="n">
-        <v>279</v>
+        <v>201</v>
       </c>
       <c r="BD43" t="n">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="BE43" t="n">
-        <v>228</v>
+        <v>145</v>
       </c>
       <c r="BF43" t="n">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="BG43" t="n">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="BH43" t="n">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="BI43" t="n">
-        <v>117</v>
-      </c>
-      <c r="BJ43" t="n">
-        <v>88</v>
-      </c>
-      <c r="BK43" t="n">
-        <v>89</v>
-      </c>
-      <c r="BL43" t="n">
         <v>181</v>
       </c>
     </row>
@@ -9173,15 +8780,6 @@
       <c r="BI44" t="n">
         <v>0</v>
       </c>
-      <c r="BJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9369,15 +8967,6 @@
       <c r="BI45" t="n">
         <v>0</v>
       </c>
-      <c r="BJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9563,15 +9152,6 @@
         <v>0</v>
       </c>
       <c r="BI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL46" t="n">
         <v>2295</v>
       </c>
     </row>
@@ -9582,192 +9162,183 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-19392</v>
+        <v>-19985</v>
       </c>
       <c r="C47" t="n">
-        <v>-19594</v>
+        <v>-20155</v>
       </c>
       <c r="D47" t="n">
-        <v>-19775</v>
+        <v>-20333</v>
       </c>
       <c r="E47" t="n">
-        <v>-19985</v>
+        <v>-20623</v>
       </c>
       <c r="F47" t="n">
-        <v>-20155</v>
+        <v>-20834</v>
       </c>
       <c r="G47" t="n">
-        <v>-20333</v>
+        <v>-21027</v>
       </c>
       <c r="H47" t="n">
-        <v>-20623</v>
+        <v>-21020</v>
       </c>
       <c r="I47" t="n">
-        <v>-20834</v>
+        <v>-21250</v>
       </c>
       <c r="J47" t="n">
-        <v>-21027</v>
+        <v>-21444</v>
       </c>
       <c r="K47" t="n">
-        <v>-21020</v>
+        <v>-21588</v>
       </c>
       <c r="L47" t="n">
-        <v>-21250</v>
+        <v>-21489</v>
       </c>
       <c r="M47" t="n">
-        <v>-21444</v>
+        <v>-21702</v>
       </c>
       <c r="N47" t="n">
-        <v>-21588</v>
+        <v>-21893</v>
       </c>
       <c r="O47" t="n">
-        <v>-21489</v>
+        <v>-22078</v>
       </c>
       <c r="P47" t="n">
-        <v>-21702</v>
+        <v>-23322</v>
       </c>
       <c r="Q47" t="n">
-        <v>-21893</v>
+        <v>-23769</v>
       </c>
       <c r="R47" t="n">
-        <v>-22078</v>
+        <v>-24176</v>
       </c>
       <c r="S47" t="n">
-        <v>-23322</v>
+        <v>-24474</v>
       </c>
       <c r="T47" t="n">
-        <v>-23769</v>
+        <v>-6945</v>
       </c>
       <c r="U47" t="n">
-        <v>-24176</v>
+        <v>-7327</v>
       </c>
       <c r="V47" t="n">
-        <v>-24474</v>
+        <v>-7582</v>
       </c>
       <c r="W47" t="n">
-        <v>-6945</v>
+        <v>-7788</v>
       </c>
       <c r="X47" t="n">
-        <v>-7327</v>
+        <v>-7980</v>
       </c>
       <c r="Y47" t="n">
-        <v>-7582</v>
+        <v>-7994</v>
       </c>
       <c r="Z47" t="n">
-        <v>-7788</v>
+        <v>-8026</v>
       </c>
       <c r="AA47" t="n">
-        <v>-7980</v>
+        <v>-7982</v>
       </c>
       <c r="AB47" t="n">
-        <v>-7994</v>
+        <v>-7985</v>
       </c>
       <c r="AC47" t="n">
-        <v>-8026</v>
+        <v>-7988</v>
       </c>
       <c r="AD47" t="n">
-        <v>-7982</v>
+        <v>-8002</v>
       </c>
       <c r="AE47" t="n">
-        <v>-7985</v>
+        <v>-8052</v>
       </c>
       <c r="AF47" t="n">
-        <v>-7988</v>
+        <v>-8131</v>
       </c>
       <c r="AG47" t="n">
-        <v>-8002</v>
+        <v>-8229</v>
       </c>
       <c r="AH47" t="n">
-        <v>-8052</v>
+        <v>-7295</v>
       </c>
       <c r="AI47" t="n">
-        <v>-8131</v>
+        <v>-5890</v>
       </c>
       <c r="AJ47" t="n">
-        <v>-8229</v>
+        <v>-4066</v>
       </c>
       <c r="AK47" t="n">
-        <v>-7295</v>
+        <v>-2616</v>
       </c>
       <c r="AL47" t="n">
-        <v>-5890</v>
+        <v>-1499</v>
       </c>
       <c r="AM47" t="n">
-        <v>-4066</v>
+        <v>1366</v>
       </c>
       <c r="AN47" t="n">
-        <v>-2616</v>
+        <v>3014</v>
       </c>
       <c r="AO47" t="n">
-        <v>-1499</v>
+        <v>3987</v>
       </c>
       <c r="AP47" t="n">
-        <v>1366</v>
+        <v>4493</v>
       </c>
       <c r="AQ47" t="n">
-        <v>3014</v>
+        <v>4356</v>
       </c>
       <c r="AR47" t="n">
-        <v>3987</v>
+        <v>5127</v>
       </c>
       <c r="AS47" t="n">
-        <v>4493</v>
+        <v>8841</v>
       </c>
       <c r="AT47" t="n">
-        <v>4356</v>
+        <v>12238</v>
       </c>
       <c r="AU47" t="n">
-        <v>5127</v>
+        <v>16474</v>
       </c>
       <c r="AV47" t="n">
-        <v>8841</v>
+        <v>14529</v>
       </c>
       <c r="AW47" t="n">
-        <v>12238</v>
+        <v>15501</v>
       </c>
       <c r="AX47" t="n">
-        <v>16474</v>
+        <v>17763</v>
       </c>
       <c r="AY47" t="n">
-        <v>14529</v>
+        <v>17865</v>
       </c>
       <c r="AZ47" t="n">
-        <v>15501</v>
+        <v>15816</v>
       </c>
       <c r="BA47" t="n">
-        <v>17763</v>
+        <v>24467</v>
       </c>
       <c r="BB47" t="n">
-        <v>17865</v>
+        <v>25629</v>
       </c>
       <c r="BC47" t="n">
-        <v>15816</v>
+        <v>26777</v>
       </c>
       <c r="BD47" t="n">
-        <v>24467</v>
+        <v>23460</v>
       </c>
       <c r="BE47" t="n">
-        <v>25629</v>
+        <v>25102</v>
       </c>
       <c r="BF47" t="n">
-        <v>26777</v>
+        <v>19437</v>
       </c>
       <c r="BG47" t="n">
-        <v>23460</v>
+        <v>18297</v>
       </c>
       <c r="BH47" t="n">
-        <v>25102</v>
+        <v>16924</v>
       </c>
       <c r="BI47" t="n">
-        <v>19437</v>
-      </c>
-      <c r="BJ47" t="n">
-        <v>18297</v>
-      </c>
-      <c r="BK47" t="n">
-        <v>16924</v>
-      </c>
-      <c r="BL47" t="n">
         <v>39312</v>
       </c>
     </row>
@@ -9832,13 +9403,13 @@
         <v>217691.008</v>
       </c>
       <c r="T48" t="n">
-        <v>217691.008</v>
+        <v>235691.008</v>
       </c>
       <c r="U48" t="n">
-        <v>217691.008</v>
+        <v>235691.008</v>
       </c>
       <c r="V48" t="n">
-        <v>217691.008</v>
+        <v>235691.008</v>
       </c>
       <c r="W48" t="n">
         <v>235691.008</v>
@@ -9910,13 +9481,13 @@
         <v>235691.008</v>
       </c>
       <c r="AT48" t="n">
-        <v>235691.008</v>
+        <v>5080</v>
       </c>
       <c r="AU48" t="n">
-        <v>235691.008</v>
+        <v>5080</v>
       </c>
       <c r="AV48" t="n">
-        <v>235691.008</v>
+        <v>5080</v>
       </c>
       <c r="AW48" t="n">
         <v>5080</v>
@@ -9934,13 +9505,13 @@
         <v>5080</v>
       </c>
       <c r="BB48" t="n">
-        <v>5080</v>
+        <v>13914</v>
       </c>
       <c r="BC48" t="n">
-        <v>5080</v>
+        <v>13914</v>
       </c>
       <c r="BD48" t="n">
-        <v>5080</v>
+        <v>13914</v>
       </c>
       <c r="BE48" t="n">
         <v>13914</v>
@@ -9955,15 +9526,6 @@
         <v>13914</v>
       </c>
       <c r="BI48" t="n">
-        <v>13914</v>
-      </c>
-      <c r="BJ48" t="n">
-        <v>13914</v>
-      </c>
-      <c r="BK48" t="n">
-        <v>13914</v>
-      </c>
-      <c r="BL48" t="n">
         <v>13914</v>
       </c>
     </row>
@@ -10145,21 +9707,12 @@
         <v>0</v>
       </c>
       <c r="BG49" t="n">
-        <v>0</v>
+        <v>-879</v>
       </c>
       <c r="BH49" t="n">
         <v>0</v>
       </c>
       <c r="BI49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ49" t="n">
-        <v>-879</v>
-      </c>
-      <c r="BK49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10349,15 +9902,6 @@
       <c r="BI50" t="n">
         <v>0</v>
       </c>
-      <c r="BJ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10504,54 +10048,45 @@
         <v>0</v>
       </c>
       <c r="AV51" t="n">
-        <v>0</v>
+        <v>9449</v>
       </c>
       <c r="AW51" t="n">
-        <v>0</v>
+        <v>10421</v>
       </c>
       <c r="AX51" t="n">
-        <v>0</v>
+        <v>12683</v>
       </c>
       <c r="AY51" t="n">
-        <v>9449</v>
+        <v>12785</v>
       </c>
       <c r="AZ51" t="n">
-        <v>10421</v>
+        <v>10736</v>
       </c>
       <c r="BA51" t="n">
-        <v>12683</v>
+        <v>19387</v>
       </c>
       <c r="BB51" t="n">
-        <v>12785</v>
+        <v>11715</v>
       </c>
       <c r="BC51" t="n">
-        <v>10736</v>
+        <v>12863</v>
       </c>
       <c r="BD51" t="n">
-        <v>19387</v>
+        <v>9546</v>
       </c>
       <c r="BE51" t="n">
-        <v>11715</v>
+        <v>11188</v>
       </c>
       <c r="BF51" t="n">
-        <v>12863</v>
+        <v>5523</v>
       </c>
       <c r="BG51" t="n">
-        <v>9546</v>
+        <v>5262</v>
       </c>
       <c r="BH51" t="n">
-        <v>11188</v>
+        <v>3010</v>
       </c>
       <c r="BI51" t="n">
-        <v>5523</v>
-      </c>
-      <c r="BJ51" t="n">
-        <v>5262</v>
-      </c>
-      <c r="BK51" t="n">
-        <v>3010</v>
-      </c>
-      <c r="BL51" t="n">
         <v>3010</v>
       </c>
     </row>
@@ -10562,151 +10097,151 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-237083.008</v>
+        <v>-237676</v>
       </c>
       <c r="C52" t="n">
-        <v>-237284.992</v>
+        <v>-237846</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>-238024</v>
       </c>
       <c r="E52" t="n">
-        <v>-237676</v>
+        <v>-238314</v>
       </c>
       <c r="F52" t="n">
-        <v>-237846</v>
+        <v>-238524.992</v>
       </c>
       <c r="G52" t="n">
-        <v>-238024</v>
+        <v>-238718</v>
       </c>
       <c r="H52" t="n">
-        <v>-238314</v>
+        <v>-238711.008</v>
       </c>
       <c r="I52" t="n">
-        <v>-238524.992</v>
+        <v>-238940.992</v>
       </c>
       <c r="J52" t="n">
-        <v>-238718</v>
+        <v>-239135.008</v>
       </c>
       <c r="K52" t="n">
-        <v>-238711.008</v>
+        <v>-239279.008</v>
       </c>
       <c r="L52" t="n">
-        <v>-238940.992</v>
+        <v>-239180</v>
       </c>
       <c r="M52" t="n">
-        <v>-239135.008</v>
+        <v>-239392.992</v>
       </c>
       <c r="N52" t="n">
-        <v>-239279.008</v>
+        <v>-239584</v>
       </c>
       <c r="O52" t="n">
-        <v>-239180</v>
+        <v>-239768.992</v>
       </c>
       <c r="P52" t="n">
-        <v>-239392.992</v>
+        <v>-241012.992</v>
       </c>
       <c r="Q52" t="n">
-        <v>-239584</v>
+        <v>-241460</v>
       </c>
       <c r="R52" t="n">
-        <v>-239768.992</v>
+        <v>-241867.008</v>
       </c>
       <c r="S52" t="n">
-        <v>-241012.992</v>
+        <v>-242164.992</v>
       </c>
       <c r="T52" t="n">
-        <v>-241460</v>
+        <v>-242636</v>
       </c>
       <c r="U52" t="n">
-        <v>-241867.008</v>
+        <v>-243018</v>
       </c>
       <c r="V52" t="n">
-        <v>-242164.992</v>
+        <v>-243272.992</v>
       </c>
       <c r="W52" t="n">
-        <v>-242636</v>
+        <v>-243479.008</v>
       </c>
       <c r="X52" t="n">
-        <v>-243018</v>
+        <v>-243671.008</v>
       </c>
       <c r="Y52" t="n">
-        <v>-243272.992</v>
+        <v>-243684.992</v>
       </c>
       <c r="Z52" t="n">
-        <v>-243479.008</v>
+        <v>-243716.992</v>
       </c>
       <c r="AA52" t="n">
-        <v>-243671.008</v>
+        <v>-243672.992</v>
       </c>
       <c r="AB52" t="n">
-        <v>-243684.992</v>
+        <v>-243676</v>
       </c>
       <c r="AC52" t="n">
-        <v>-243716.992</v>
+        <v>-243679.008</v>
       </c>
       <c r="AD52" t="n">
-        <v>-243672.992</v>
+        <v>-243692.992</v>
       </c>
       <c r="AE52" t="n">
-        <v>-243676</v>
+        <v>-243743.008</v>
       </c>
       <c r="AF52" t="n">
-        <v>-243679.008</v>
+        <v>-243822</v>
       </c>
       <c r="AG52" t="n">
-        <v>-243692.992</v>
+        <v>-243920</v>
       </c>
       <c r="AH52" t="n">
-        <v>-243743.008</v>
+        <v>-242986</v>
       </c>
       <c r="AI52" t="n">
-        <v>-243822</v>
+        <v>-241580.992</v>
       </c>
       <c r="AJ52" t="n">
-        <v>-243920</v>
+        <v>-239756.992</v>
       </c>
       <c r="AK52" t="n">
-        <v>-242986</v>
+        <v>-238307.008</v>
       </c>
       <c r="AL52" t="n">
-        <v>-241580.992</v>
+        <v>-237190</v>
       </c>
       <c r="AM52" t="n">
-        <v>-239756.992</v>
+        <v>-234324.992</v>
       </c>
       <c r="AN52" t="n">
-        <v>-238307.008</v>
+        <v>-232676.992</v>
       </c>
       <c r="AO52" t="n">
-        <v>-237190</v>
+        <v>-231704</v>
       </c>
       <c r="AP52" t="n">
-        <v>-234324.992</v>
+        <v>-231198</v>
       </c>
       <c r="AQ52" t="n">
-        <v>-232676.992</v>
+        <v>-231335.008</v>
       </c>
       <c r="AR52" t="n">
-        <v>-231704</v>
+        <v>-230564</v>
       </c>
       <c r="AS52" t="n">
-        <v>-231198</v>
+        <v>-226850</v>
       </c>
       <c r="AT52" t="n">
-        <v>-231335.008</v>
+        <v>7158</v>
       </c>
       <c r="AU52" t="n">
-        <v>-230564</v>
+        <v>11394</v>
       </c>
       <c r="AV52" t="n">
-        <v>-226850</v>
+        <v>0</v>
       </c>
       <c r="AW52" t="n">
-        <v>7158</v>
+        <v>0</v>
       </c>
       <c r="AX52" t="n">
-        <v>11394</v>
+        <v>0</v>
       </c>
       <c r="AY52" t="n">
         <v>0</v>
@@ -10739,15 +10274,6 @@
         <v>0</v>
       </c>
       <c r="BI52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL52" t="n">
         <v>22388</v>
       </c>
     </row>
@@ -10937,15 +10463,6 @@
       <c r="BI53" t="n">
         <v>0</v>
       </c>
-      <c r="BJ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL53" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11133,15 +10650,6 @@
       <c r="BI54" t="n">
         <v>0</v>
       </c>
-      <c r="BJ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11329,15 +10837,6 @@
       <c r="BI55" t="n">
         <v>0</v>
       </c>
-      <c r="BJ55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL55" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11352,7 +10851,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-237466</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -11523,15 +11022,6 @@
         <v>0</v>
       </c>
       <c r="BI56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11556,15 +11046,9 @@
       <c r="F57" t="n">
         <v>0</v>
       </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
@@ -11617,9 +11101,6 @@
       <c r="BG57" t="inlineStr"/>
       <c r="BH57" t="inlineStr"/>
       <c r="BI57" t="inlineStr"/>
-      <c r="BJ57" t="inlineStr"/>
-      <c r="BK57" t="inlineStr"/>
-      <c r="BL57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -11642,15 +11123,9 @@
       <c r="F58" t="n">
         <v>0</v>
       </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
@@ -11703,9 +11178,6 @@
       <c r="BG58" t="inlineStr"/>
       <c r="BH58" t="inlineStr"/>
       <c r="BI58" t="inlineStr"/>
-      <c r="BJ58" t="inlineStr"/>
-      <c r="BK58" t="inlineStr"/>
-      <c r="BL58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -11825,81 +11297,72 @@
         <v>0</v>
       </c>
       <c r="AM59" t="n">
-        <v>0</v>
+        <v>3721</v>
       </c>
       <c r="AN59" t="n">
-        <v>0</v>
+        <v>4253</v>
       </c>
       <c r="AO59" t="n">
-        <v>0</v>
+        <v>2647</v>
       </c>
       <c r="AP59" t="n">
-        <v>3721</v>
+        <v>2068</v>
       </c>
       <c r="AQ59" t="n">
-        <v>4253</v>
+        <v>1486</v>
       </c>
       <c r="AR59" t="n">
-        <v>2647</v>
+        <v>3253</v>
       </c>
       <c r="AS59" t="n">
-        <v>2068</v>
+        <v>5134</v>
       </c>
       <c r="AT59" t="n">
-        <v>1486</v>
+        <v>8847</v>
       </c>
       <c r="AU59" t="n">
-        <v>3253</v>
+        <v>10024</v>
       </c>
       <c r="AV59" t="n">
-        <v>5134</v>
+        <v>6804</v>
       </c>
       <c r="AW59" t="n">
-        <v>8847</v>
+        <v>10744</v>
       </c>
       <c r="AX59" t="n">
-        <v>10024</v>
+        <v>7687</v>
       </c>
       <c r="AY59" t="n">
-        <v>6804</v>
+        <v>4606</v>
       </c>
       <c r="AZ59" t="n">
-        <v>10744</v>
+        <v>16299</v>
       </c>
       <c r="BA59" t="n">
-        <v>7687</v>
+        <v>7762</v>
       </c>
       <c r="BB59" t="n">
-        <v>4606</v>
+        <v>6364</v>
       </c>
       <c r="BC59" t="n">
-        <v>16299</v>
+        <v>5469</v>
       </c>
       <c r="BD59" t="n">
-        <v>7762</v>
+        <v>10333</v>
       </c>
       <c r="BE59" t="n">
-        <v>6364</v>
+        <v>4665</v>
       </c>
       <c r="BF59" t="n">
-        <v>5469</v>
+        <v>2993</v>
       </c>
       <c r="BG59" t="n">
-        <v>10333</v>
+        <v>3251</v>
       </c>
       <c r="BH59" t="n">
-        <v>4665</v>
+        <v>12063</v>
       </c>
       <c r="BI59" t="n">
-        <v>2993</v>
-      </c>
-      <c r="BJ59" t="n">
-        <v>3251</v>
-      </c>
-      <c r="BK59" t="n">
-        <v>12063</v>
-      </c>
-      <c r="BL59" t="n">
         <v>7636</v>
       </c>
     </row>
@@ -12063,39 +11526,30 @@
         <v>0</v>
       </c>
       <c r="BA60" t="n">
-        <v>0</v>
+        <v>-273</v>
       </c>
       <c r="BB60" t="n">
-        <v>0</v>
+        <v>-303</v>
       </c>
       <c r="BC60" t="n">
-        <v>0</v>
+        <v>-333</v>
       </c>
       <c r="BD60" t="n">
-        <v>-273</v>
+        <v>-451</v>
       </c>
       <c r="BE60" t="n">
-        <v>-303</v>
+        <v>-465</v>
       </c>
       <c r="BF60" t="n">
-        <v>-333</v>
+        <v>-539</v>
       </c>
       <c r="BG60" t="n">
-        <v>-451</v>
+        <v>-263</v>
       </c>
       <c r="BH60" t="n">
-        <v>-465</v>
+        <v>-626</v>
       </c>
       <c r="BI60" t="n">
-        <v>-539</v>
-      </c>
-      <c r="BJ60" t="n">
-        <v>-263</v>
-      </c>
-      <c r="BK60" t="n">
-        <v>-626</v>
-      </c>
-      <c r="BL60" t="n">
         <v>-536</v>
       </c>
     </row>
@@ -12217,81 +11671,72 @@
         <v>0</v>
       </c>
       <c r="AM61" t="n">
-        <v>0</v>
+        <v>3721</v>
       </c>
       <c r="AN61" t="n">
-        <v>0</v>
+        <v>4253</v>
       </c>
       <c r="AO61" t="n">
-        <v>0</v>
+        <v>2647</v>
       </c>
       <c r="AP61" t="n">
-        <v>3721</v>
+        <v>2068</v>
       </c>
       <c r="AQ61" t="n">
-        <v>4253</v>
+        <v>1486</v>
       </c>
       <c r="AR61" t="n">
-        <v>2647</v>
+        <v>3253</v>
       </c>
       <c r="AS61" t="n">
-        <v>2068</v>
+        <v>5134</v>
       </c>
       <c r="AT61" t="n">
-        <v>1486</v>
+        <v>8847</v>
       </c>
       <c r="AU61" t="n">
-        <v>3253</v>
+        <v>10024</v>
       </c>
       <c r="AV61" t="n">
-        <v>5134</v>
+        <v>6804</v>
       </c>
       <c r="AW61" t="n">
-        <v>8847</v>
+        <v>10744</v>
       </c>
       <c r="AX61" t="n">
-        <v>10024</v>
+        <v>7687</v>
       </c>
       <c r="AY61" t="n">
-        <v>6804</v>
+        <v>4606</v>
       </c>
       <c r="AZ61" t="n">
-        <v>10744</v>
+        <v>16299</v>
       </c>
       <c r="BA61" t="n">
-        <v>7687</v>
+        <v>7489</v>
       </c>
       <c r="BB61" t="n">
-        <v>4606</v>
+        <v>6061</v>
       </c>
       <c r="BC61" t="n">
-        <v>16299</v>
+        <v>5136</v>
       </c>
       <c r="BD61" t="n">
-        <v>7489</v>
+        <v>9882</v>
       </c>
       <c r="BE61" t="n">
-        <v>6061</v>
+        <v>4200</v>
       </c>
       <c r="BF61" t="n">
-        <v>5136</v>
+        <v>2454</v>
       </c>
       <c r="BG61" t="n">
-        <v>9882</v>
+        <v>2988</v>
       </c>
       <c r="BH61" t="n">
-        <v>4200</v>
+        <v>11437</v>
       </c>
       <c r="BI61" t="n">
-        <v>2454</v>
-      </c>
-      <c r="BJ61" t="n">
-        <v>2988</v>
-      </c>
-      <c r="BK61" t="n">
-        <v>11437</v>
-      </c>
-      <c r="BL61" t="n">
         <v>7100</v>
       </c>
     </row>
@@ -12452,42 +11897,33 @@
         <v>0</v>
       </c>
       <c r="AZ62" t="n">
-        <v>0</v>
+        <v>-5619</v>
       </c>
       <c r="BA62" t="n">
-        <v>0</v>
+        <v>-4115</v>
       </c>
       <c r="BB62" t="n">
-        <v>0</v>
+        <v>-3619</v>
       </c>
       <c r="BC62" t="n">
-        <v>-5619</v>
+        <v>-4569</v>
       </c>
       <c r="BD62" t="n">
-        <v>-4115</v>
+        <v>-4650</v>
       </c>
       <c r="BE62" t="n">
-        <v>-3619</v>
+        <v>-3540</v>
       </c>
       <c r="BF62" t="n">
-        <v>-4569</v>
+        <v>-1697</v>
       </c>
       <c r="BG62" t="n">
-        <v>-4650</v>
+        <v>-2788</v>
       </c>
       <c r="BH62" t="n">
-        <v>-3540</v>
+        <v>-2804</v>
       </c>
       <c r="BI62" t="n">
-        <v>-1697</v>
-      </c>
-      <c r="BJ62" t="n">
-        <v>-2788</v>
-      </c>
-      <c r="BK62" t="n">
-        <v>-2804</v>
-      </c>
-      <c r="BL62" t="n">
         <v>-2914</v>
       </c>
     </row>
@@ -12498,192 +11934,183 @@
         </is>
       </c>
       <c r="B63" t="n">
+        <v>-84</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-93</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-138</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-61</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-117</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-92</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-84</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-84</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-63</v>
+      </c>
+      <c r="K63" t="n">
         <v>-91</v>
       </c>
-      <c r="C63" t="n">
-        <v>-81</v>
-      </c>
-      <c r="D63" t="n">
-        <v>-70</v>
-      </c>
-      <c r="E63" t="n">
+      <c r="L63" t="n">
+        <v>-103</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-117</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-99</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-78</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-102</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-91</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-92</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-106</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-119</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-122</v>
+      </c>
+      <c r="V63" t="n">
+        <v>-129</v>
+      </c>
+      <c r="W63" t="n">
+        <v>-141</v>
+      </c>
+      <c r="X63" t="n">
         <v>-84</v>
       </c>
-      <c r="F63" t="n">
-        <v>-93</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-138</v>
-      </c>
-      <c r="H63" t="n">
-        <v>-61</v>
-      </c>
-      <c r="I63" t="n">
-        <v>-117</v>
-      </c>
-      <c r="J63" t="n">
+      <c r="Y63" t="n">
+        <v>-14</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>-32</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>-15</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>-79</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>-97</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>-71</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>-83</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>-76</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-94</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>-79</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>-142</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>-78</v>
+      </c>
+      <c r="AL63" t="n">
         <v>-92</v>
       </c>
-      <c r="K63" t="n">
-        <v>-84</v>
-      </c>
-      <c r="L63" t="n">
-        <v>-84</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-63</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-91</v>
-      </c>
-      <c r="O63" t="n">
-        <v>-103</v>
-      </c>
-      <c r="P63" t="n">
-        <v>-117</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>-99</v>
-      </c>
-      <c r="R63" t="n">
-        <v>-78</v>
-      </c>
-      <c r="S63" t="n">
-        <v>-102</v>
-      </c>
-      <c r="T63" t="n">
-        <v>-91</v>
-      </c>
-      <c r="U63" t="n">
-        <v>-92</v>
-      </c>
-      <c r="V63" t="n">
-        <v>-106</v>
-      </c>
-      <c r="W63" t="n">
-        <v>-119</v>
-      </c>
-      <c r="X63" t="n">
-        <v>-122</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>-129</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>-141</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>-84</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>-14</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>-32</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>-15</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>-79</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>-97</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>-71</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>-83</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>-76</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>-94</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>-79</v>
-      </c>
       <c r="AM63" t="n">
-        <v>-142</v>
+        <v>-411</v>
       </c>
       <c r="AN63" t="n">
-        <v>-78</v>
+        <v>-1410</v>
       </c>
       <c r="AO63" t="n">
-        <v>-92</v>
+        <v>-972</v>
       </c>
       <c r="AP63" t="n">
-        <v>-411</v>
+        <v>-1362</v>
       </c>
       <c r="AQ63" t="n">
-        <v>-1410</v>
+        <v>-1617</v>
       </c>
       <c r="AR63" t="n">
-        <v>-972</v>
+        <v>-3035</v>
       </c>
       <c r="AS63" t="n">
-        <v>-1362</v>
+        <v>-3578</v>
       </c>
       <c r="AT63" t="n">
-        <v>-1617</v>
+        <v>-5432</v>
       </c>
       <c r="AU63" t="n">
-        <v>-3035</v>
+        <v>-5475</v>
       </c>
       <c r="AV63" t="n">
-        <v>-3578</v>
+        <v>-6459</v>
       </c>
       <c r="AW63" t="n">
-        <v>-5432</v>
+        <v>-6335</v>
       </c>
       <c r="AX63" t="n">
-        <v>-5475</v>
+        <v>-5877</v>
       </c>
       <c r="AY63" t="n">
-        <v>-6459</v>
+        <v>-5226</v>
       </c>
       <c r="AZ63" t="n">
-        <v>-6335</v>
+        <v>-1182</v>
       </c>
       <c r="BA63" t="n">
-        <v>-5877</v>
+        <v>-1242</v>
       </c>
       <c r="BB63" t="n">
-        <v>-5226</v>
+        <v>-1301</v>
       </c>
       <c r="BC63" t="n">
-        <v>-1182</v>
+        <v>-3922</v>
       </c>
       <c r="BD63" t="n">
-        <v>-1242</v>
+        <v>-2711</v>
       </c>
       <c r="BE63" t="n">
-        <v>-1301</v>
+        <v>-1278</v>
       </c>
       <c r="BF63" t="n">
-        <v>-3922</v>
+        <v>-2238</v>
       </c>
       <c r="BG63" t="n">
-        <v>-2711</v>
+        <v>-2588</v>
       </c>
       <c r="BH63" t="n">
-        <v>-1278</v>
+        <v>-4626</v>
       </c>
       <c r="BI63" t="n">
-        <v>-2238</v>
-      </c>
-      <c r="BJ63" t="n">
-        <v>-2588</v>
-      </c>
-      <c r="BK63" t="n">
-        <v>-4626</v>
-      </c>
-      <c r="BL63" t="n">
         <v>-3114</v>
       </c>
     </row>
@@ -12699,59 +12126,65 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>3</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S64" t="n">
         <v>-3</v>
       </c>
-      <c r="L64" t="n">
-        <v>-3</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
-        <v>3</v>
-      </c>
-      <c r="P64" t="n">
-        <v>-4</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0</v>
-      </c>
-      <c r="R64" t="n">
-        <v>0</v>
-      </c>
-      <c r="S64" t="n">
-        <v>4</v>
-      </c>
       <c r="T64" t="n">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
         <v>-1</v>
       </c>
-      <c r="V64" t="n">
-        <v>-3</v>
-      </c>
-      <c r="W64" t="n">
-        <v>6</v>
-      </c>
       <c r="X64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y64" t="n">
         <v>0</v>
       </c>
       <c r="Z64" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB64" t="n">
         <v>0</v>
@@ -12853,15 +12286,6 @@
         <v>0</v>
       </c>
       <c r="BI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13013,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="AW65" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="AX65" t="n">
         <v>0</v>
@@ -13022,42 +12446,33 @@
         <v>0</v>
       </c>
       <c r="AZ65" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="BA65" t="n">
         <v>0</v>
       </c>
       <c r="BB65" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="BC65" t="n">
-        <v>0</v>
+        <v>-141</v>
       </c>
       <c r="BD65" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="BE65" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="BF65" t="n">
-        <v>-141</v>
+        <v>3</v>
       </c>
       <c r="BG65" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="BH65" t="n">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="BI65" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ65" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK65" t="n">
-        <v>378</v>
-      </c>
-      <c r="BL65" t="n">
         <v>-357</v>
       </c>
     </row>
@@ -13071,189 +12486,180 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="D66" t="n">
-        <v>-1</v>
+        <v>-22</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F66" t="n">
-        <v>-60</v>
+        <v>-3</v>
       </c>
       <c r="G66" t="n">
-        <v>-22</v>
+        <v>-13</v>
       </c>
       <c r="H66" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
         <v>-3</v>
       </c>
-      <c r="J66" t="n">
-        <v>-13</v>
-      </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="M66" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
         <v>-3</v>
       </c>
       <c r="O66" t="n">
-        <v>-11</v>
+        <v>-3</v>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-24</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>-21</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>-23</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>-12</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>-62</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>-717</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>-1672</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>-1961</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>-488</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>4014</v>
+      </c>
+      <c r="AO66" t="n">
         <v>-3</v>
       </c>
-      <c r="R66" t="n">
-        <v>-3</v>
-      </c>
-      <c r="S66" t="n">
-        <v>-70</v>
-      </c>
-      <c r="T66" t="n">
-        <v>0</v>
-      </c>
-      <c r="U66" t="n">
-        <v>0</v>
-      </c>
-      <c r="V66" t="n">
-        <v>0</v>
-      </c>
-      <c r="W66" t="n">
-        <v>-24</v>
-      </c>
-      <c r="X66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>-21</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>-23</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>-12</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>-5</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>-62</v>
-      </c>
-      <c r="AM66" t="n">
-        <v>-717</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>-1672</v>
-      </c>
-      <c r="AO66" t="n">
-        <v>-1961</v>
-      </c>
       <c r="AP66" t="n">
-        <v>-488</v>
+        <v>0</v>
       </c>
       <c r="AQ66" t="n">
-        <v>4014</v>
+        <v>-8</v>
       </c>
       <c r="AR66" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AS66" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AT66" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="AU66" t="n">
         <v>-1</v>
       </c>
       <c r="AV66" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW66" t="n">
         <v>0</v>
       </c>
       <c r="AX66" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AY66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ66" t="n">
-        <v>0</v>
+        <v>-671</v>
       </c>
       <c r="BA66" t="n">
-        <v>0</v>
+        <v>-1544</v>
       </c>
       <c r="BB66" t="n">
-        <v>0</v>
+        <v>-396</v>
       </c>
       <c r="BC66" t="n">
-        <v>-671</v>
+        <v>2611</v>
       </c>
       <c r="BD66" t="n">
-        <v>-1544</v>
+        <v>-289</v>
       </c>
       <c r="BE66" t="n">
-        <v>-396</v>
+        <v>-253</v>
       </c>
       <c r="BF66" t="n">
-        <v>2611</v>
+        <v>-164</v>
       </c>
       <c r="BG66" t="n">
-        <v>-289</v>
+        <v>706</v>
       </c>
       <c r="BH66" t="n">
-        <v>-253</v>
+        <v>-969</v>
       </c>
       <c r="BI66" t="n">
-        <v>-164</v>
-      </c>
-      <c r="BJ66" t="n">
-        <v>706</v>
-      </c>
-      <c r="BK66" t="n">
-        <v>-969</v>
-      </c>
-      <c r="BL66" t="n">
         <v>-1187</v>
       </c>
     </row>
@@ -13443,15 +12849,6 @@
       <c r="BI67" t="n">
         <v>0</v>
       </c>
-      <c r="BJ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL67" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -13460,192 +12857,183 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-107</v>
+        <v>-78</v>
       </c>
       <c r="C68" t="n">
-        <v>-93</v>
+        <v>-82</v>
       </c>
       <c r="D68" t="n">
-        <v>-97</v>
+        <v>-130</v>
       </c>
       <c r="E68" t="n">
-        <v>-78</v>
+        <v>-145</v>
       </c>
       <c r="F68" t="n">
-        <v>-82</v>
+        <v>-73</v>
       </c>
       <c r="G68" t="n">
-        <v>-130</v>
+        <v>112</v>
       </c>
       <c r="H68" t="n">
-        <v>-145</v>
+        <v>-143</v>
       </c>
       <c r="I68" t="n">
-        <v>-73</v>
+        <v>-143</v>
       </c>
       <c r="J68" t="n">
-        <v>112</v>
+        <v>-103</v>
       </c>
       <c r="K68" t="n">
-        <v>-143</v>
+        <v>-50</v>
       </c>
       <c r="L68" t="n">
-        <v>-143</v>
+        <v>185</v>
       </c>
       <c r="M68" t="n">
+        <v>-92</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-90</v>
+      </c>
+      <c r="O68" t="n">
+        <v>-104</v>
+      </c>
+      <c r="P68" t="n">
+        <v>-1075</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>-354</v>
+      </c>
+      <c r="R68" t="n">
+        <v>-314</v>
+      </c>
+      <c r="S68" t="n">
+        <v>-189</v>
+      </c>
+      <c r="T68" t="n">
+        <v>-334</v>
+      </c>
+      <c r="U68" t="n">
+        <v>-260</v>
+      </c>
+      <c r="V68" t="n">
+        <v>-126</v>
+      </c>
+      <c r="W68" t="n">
+        <v>-64</v>
+      </c>
+      <c r="X68" t="n">
+        <v>-88</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>59</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>99</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>106</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>62</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>37</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>1701</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>4098</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>3410</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>3170</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>236</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>-5082</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>-670</v>
+      </c>
+      <c r="AP68" t="n">
         <v>-103</v>
       </c>
-      <c r="N68" t="n">
-        <v>-50</v>
-      </c>
-      <c r="O68" t="n">
-        <v>185</v>
-      </c>
-      <c r="P68" t="n">
-        <v>-92</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>-90</v>
-      </c>
-      <c r="R68" t="n">
-        <v>-104</v>
-      </c>
-      <c r="S68" t="n">
-        <v>-1075</v>
-      </c>
-      <c r="T68" t="n">
-        <v>-354</v>
-      </c>
-      <c r="U68" t="n">
-        <v>-314</v>
-      </c>
-      <c r="V68" t="n">
-        <v>-189</v>
-      </c>
-      <c r="W68" t="n">
-        <v>-334</v>
-      </c>
-      <c r="X68" t="n">
-        <v>-260</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>-126</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>-64</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>-88</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>59</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>99</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>106</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>62</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>37</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>1701</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>4098</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>3410</v>
-      </c>
-      <c r="AO68" t="n">
-        <v>3170</v>
-      </c>
-      <c r="AP68" t="n">
-        <v>236</v>
-      </c>
       <c r="AQ68" t="n">
-        <v>-5082</v>
+        <v>2</v>
       </c>
       <c r="AR68" t="n">
-        <v>-670</v>
+        <v>515</v>
       </c>
       <c r="AS68" t="n">
-        <v>-103</v>
+        <v>2328</v>
       </c>
       <c r="AT68" t="n">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="AU68" t="n">
-        <v>515</v>
+        <v>174</v>
       </c>
       <c r="AV68" t="n">
-        <v>2328</v>
+        <v>452</v>
       </c>
       <c r="AW68" t="n">
-        <v>183</v>
+        <v>-114</v>
       </c>
       <c r="AX68" t="n">
-        <v>174</v>
+        <v>550</v>
       </c>
       <c r="AY68" t="n">
-        <v>452</v>
+        <v>80</v>
       </c>
       <c r="AZ68" t="n">
-        <v>-114</v>
+        <v>119</v>
       </c>
       <c r="BA68" t="n">
-        <v>550</v>
+        <v>320</v>
       </c>
       <c r="BB68" t="n">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="BC68" t="n">
-        <v>119</v>
+        <v>486</v>
       </c>
       <c r="BD68" t="n">
-        <v>320</v>
+        <v>499</v>
       </c>
       <c r="BE68" t="n">
-        <v>399</v>
+        <v>434</v>
       </c>
       <c r="BF68" t="n">
-        <v>486</v>
+        <v>555</v>
       </c>
       <c r="BG68" t="n">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="BH68" t="n">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="BI68" t="n">
-        <v>555</v>
-      </c>
-      <c r="BJ68" t="n">
-        <v>479</v>
-      </c>
-      <c r="BK68" t="n">
-        <v>79</v>
-      </c>
-      <c r="BL68" t="n">
         <v>156</v>
       </c>
     </row>
@@ -13671,177 +13059,168 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J69" t="n">
-        <v>327</v>
+        <v>9</v>
       </c>
       <c r="K69" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L69" t="n">
-        <v>9</v>
+        <v>341</v>
       </c>
       <c r="M69" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N69" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O69" t="n">
-        <v>341</v>
+        <v>6</v>
       </c>
       <c r="P69" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q69" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R69" t="n">
         <v>6</v>
       </c>
       <c r="S69" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T69" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U69" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V69" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W69" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X69" t="n">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="Y69" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z69" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA69" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB69" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AC69" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="AD69" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AE69" t="n">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AF69" t="n">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="AG69" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="AH69" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AI69" t="n">
-        <v>1</v>
+        <v>3537</v>
       </c>
       <c r="AJ69" t="n">
-        <v>0</v>
+        <v>8456</v>
       </c>
       <c r="AK69" t="n">
-        <v>0</v>
+        <v>3410</v>
       </c>
       <c r="AL69" t="n">
-        <v>3537</v>
+        <v>3170</v>
       </c>
       <c r="AM69" t="n">
-        <v>8456</v>
+        <v>236</v>
       </c>
       <c r="AN69" t="n">
-        <v>3410</v>
+        <v>1535</v>
       </c>
       <c r="AO69" t="n">
-        <v>3170</v>
+        <v>186</v>
       </c>
       <c r="AP69" t="n">
-        <v>236</v>
+        <v>113</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1535</v>
+        <v>138</v>
       </c>
       <c r="AR69" t="n">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="AS69" t="n">
-        <v>113</v>
+        <v>2443</v>
       </c>
       <c r="AT69" t="n">
-        <v>138</v>
+        <v>376</v>
       </c>
       <c r="AU69" t="n">
-        <v>125</v>
+        <v>402</v>
       </c>
       <c r="AV69" t="n">
-        <v>2443</v>
+        <v>-2864</v>
       </c>
       <c r="AW69" t="n">
-        <v>376</v>
+        <v>131</v>
       </c>
       <c r="AX69" t="n">
-        <v>402</v>
+        <v>685</v>
       </c>
       <c r="AY69" t="n">
-        <v>-2864</v>
+        <v>-453</v>
       </c>
       <c r="AZ69" t="n">
-        <v>131</v>
+        <v>405</v>
       </c>
       <c r="BA69" t="n">
-        <v>685</v>
+        <v>494</v>
       </c>
       <c r="BB69" t="n">
-        <v>-453</v>
+        <v>535</v>
       </c>
       <c r="BC69" t="n">
-        <v>405</v>
+        <v>833</v>
       </c>
       <c r="BD69" t="n">
-        <v>494</v>
+        <v>712</v>
       </c>
       <c r="BE69" t="n">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="BF69" t="n">
-        <v>833</v>
+        <v>624</v>
       </c>
       <c r="BG69" t="n">
-        <v>712</v>
+        <v>527</v>
       </c>
       <c r="BH69" t="n">
-        <v>522</v>
+        <v>316</v>
       </c>
       <c r="BI69" t="n">
-        <v>624</v>
-      </c>
-      <c r="BJ69" t="n">
-        <v>527</v>
-      </c>
-      <c r="BK69" t="n">
-        <v>316</v>
-      </c>
-      <c r="BL69" t="n">
         <v>285</v>
       </c>
     </row>
@@ -13852,82 +13231,82 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-107</v>
+        <v>-78</v>
       </c>
       <c r="C70" t="n">
-        <v>-93</v>
+        <v>-82</v>
       </c>
       <c r="D70" t="n">
+        <v>-130</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-145</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-73</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-215</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-152</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-152</v>
+      </c>
+      <c r="J70" t="n">
+        <v>-112</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-60</v>
+      </c>
+      <c r="L70" t="n">
+        <v>-156</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N70" t="n">
         <v>-97</v>
       </c>
-      <c r="E70" t="n">
-        <v>-78</v>
-      </c>
-      <c r="F70" t="n">
-        <v>-82</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-130</v>
-      </c>
-      <c r="H70" t="n">
+      <c r="O70" t="n">
+        <v>-110</v>
+      </c>
+      <c r="P70" t="n">
+        <v>-1081</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>-359</v>
+      </c>
+      <c r="R70" t="n">
+        <v>-320</v>
+      </c>
+      <c r="S70" t="n">
+        <v>-196</v>
+      </c>
+      <c r="T70" t="n">
+        <v>-342</v>
+      </c>
+      <c r="U70" t="n">
+        <v>-268</v>
+      </c>
+      <c r="V70" t="n">
+        <v>-134</v>
+      </c>
+      <c r="W70" t="n">
+        <v>-75</v>
+      </c>
+      <c r="X70" t="n">
         <v>-145</v>
       </c>
-      <c r="I70" t="n">
-        <v>-73</v>
-      </c>
-      <c r="J70" t="n">
-        <v>-215</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-152</v>
-      </c>
-      <c r="L70" t="n">
-        <v>-152</v>
-      </c>
-      <c r="M70" t="n">
-        <v>-112</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-60</v>
-      </c>
-      <c r="O70" t="n">
-        <v>-156</v>
-      </c>
-      <c r="P70" t="n">
-        <v>-100</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>-97</v>
-      </c>
-      <c r="R70" t="n">
-        <v>-110</v>
-      </c>
-      <c r="S70" t="n">
-        <v>-1081</v>
-      </c>
-      <c r="T70" t="n">
-        <v>-359</v>
-      </c>
-      <c r="U70" t="n">
-        <v>-320</v>
-      </c>
-      <c r="V70" t="n">
-        <v>-196</v>
-      </c>
-      <c r="W70" t="n">
-        <v>-342</v>
-      </c>
-      <c r="X70" t="n">
-        <v>-268</v>
-      </c>
       <c r="Y70" t="n">
-        <v>-134</v>
+        <v>0</v>
       </c>
       <c r="Z70" t="n">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="AA70" t="n">
-        <v>-145</v>
+        <v>0</v>
       </c>
       <c r="AB70" t="n">
         <v>0</v>
@@ -13951,93 +13330,84 @@
         <v>0</v>
       </c>
       <c r="AI70" t="n">
-        <v>0</v>
+        <v>-1836</v>
       </c>
       <c r="AJ70" t="n">
-        <v>0</v>
+        <v>-4358</v>
       </c>
       <c r="AK70" t="n">
         <v>0</v>
       </c>
       <c r="AL70" t="n">
-        <v>-1836</v>
+        <v>0</v>
       </c>
       <c r="AM70" t="n">
-        <v>-4358</v>
+        <v>0</v>
       </c>
       <c r="AN70" t="n">
-        <v>0</v>
+        <v>-6617</v>
       </c>
       <c r="AO70" t="n">
-        <v>0</v>
+        <v>-856</v>
       </c>
       <c r="AP70" t="n">
-        <v>0</v>
+        <v>-216</v>
       </c>
       <c r="AQ70" t="n">
-        <v>-6617</v>
+        <v>-136</v>
       </c>
       <c r="AR70" t="n">
-        <v>-856</v>
+        <v>390</v>
       </c>
       <c r="AS70" t="n">
-        <v>-216</v>
+        <v>-115</v>
       </c>
       <c r="AT70" t="n">
+        <v>-193</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>-228</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>3316</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>-245</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>-135</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>533</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>-286</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>-174</v>
+      </c>
+      <c r="BB70" t="n">
         <v>-136</v>
       </c>
-      <c r="AU70" t="n">
-        <v>390</v>
-      </c>
-      <c r="AV70" t="n">
-        <v>-115</v>
-      </c>
-      <c r="AW70" t="n">
-        <v>-193</v>
-      </c>
-      <c r="AX70" t="n">
-        <v>-228</v>
-      </c>
-      <c r="AY70" t="n">
-        <v>3316</v>
-      </c>
-      <c r="AZ70" t="n">
-        <v>-245</v>
-      </c>
-      <c r="BA70" t="n">
-        <v>-135</v>
-      </c>
-      <c r="BB70" t="n">
-        <v>533</v>
-      </c>
       <c r="BC70" t="n">
-        <v>-286</v>
+        <v>-347</v>
       </c>
       <c r="BD70" t="n">
-        <v>-174</v>
+        <v>-213</v>
       </c>
       <c r="BE70" t="n">
-        <v>-136</v>
+        <v>-88</v>
       </c>
       <c r="BF70" t="n">
-        <v>-347</v>
+        <v>-69</v>
       </c>
       <c r="BG70" t="n">
-        <v>-213</v>
+        <v>-48</v>
       </c>
       <c r="BH70" t="n">
-        <v>-88</v>
+        <v>-237</v>
       </c>
       <c r="BI70" t="n">
-        <v>-69</v>
-      </c>
-      <c r="BJ70" t="n">
-        <v>-48</v>
-      </c>
-      <c r="BK70" t="n">
-        <v>-237</v>
-      </c>
-      <c r="BL70" t="n">
         <v>-129</v>
       </c>
     </row>
@@ -14048,29 +13418,23 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="C71" t="n">
-        <v>-7</v>
+        <v>58</v>
       </c>
       <c r="D71" t="n">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>58</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
@@ -14123,9 +13487,6 @@
       <c r="BG71" t="inlineStr"/>
       <c r="BH71" t="inlineStr"/>
       <c r="BI71" t="inlineStr"/>
-      <c r="BJ71" t="inlineStr"/>
-      <c r="BK71" t="inlineStr"/>
-      <c r="BL71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -14148,15 +13509,9 @@
       <c r="F72" t="n">
         <v>0</v>
       </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
@@ -14209,9 +13564,6 @@
       <c r="BG72" t="inlineStr"/>
       <c r="BH72" t="inlineStr"/>
       <c r="BI72" t="inlineStr"/>
-      <c r="BJ72" t="inlineStr"/>
-      <c r="BK72" t="inlineStr"/>
-      <c r="BL72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -14220,29 +13572,23 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>9</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
@@ -14295,9 +13641,6 @@
       <c r="BG73" t="inlineStr"/>
       <c r="BH73" t="inlineStr"/>
       <c r="BI73" t="inlineStr"/>
-      <c r="BJ73" t="inlineStr"/>
-      <c r="BK73" t="inlineStr"/>
-      <c r="BL73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -14306,192 +13649,183 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-201</v>
+        <v>-171</v>
       </c>
       <c r="C74" t="n">
-        <v>-181</v>
+        <v>-177</v>
       </c>
       <c r="D74" t="n">
-        <v>-210</v>
+        <v>-290</v>
       </c>
       <c r="E74" t="n">
-        <v>-171</v>
+        <v>-211</v>
       </c>
       <c r="F74" t="n">
-        <v>-177</v>
+        <v>-193</v>
       </c>
       <c r="G74" t="n">
-        <v>-290</v>
+        <v>7</v>
       </c>
       <c r="H74" t="n">
-        <v>-211</v>
+        <v>-230</v>
       </c>
       <c r="I74" t="n">
-        <v>-193</v>
+        <v>-230</v>
       </c>
       <c r="J74" t="n">
-        <v>7</v>
+        <v>-169</v>
       </c>
       <c r="K74" t="n">
-        <v>-230</v>
+        <v>-144</v>
       </c>
       <c r="L74" t="n">
-        <v>-230</v>
+        <v>74</v>
       </c>
       <c r="M74" t="n">
-        <v>-169</v>
+        <v>-213</v>
       </c>
       <c r="N74" t="n">
-        <v>-144</v>
+        <v>-192</v>
       </c>
       <c r="O74" t="n">
-        <v>74</v>
+        <v>-185</v>
       </c>
       <c r="P74" t="n">
-        <v>-213</v>
+        <v>-1243</v>
       </c>
       <c r="Q74" t="n">
+        <v>-447</v>
+      </c>
+      <c r="R74" t="n">
+        <v>-407</v>
+      </c>
+      <c r="S74" t="n">
+        <v>-298</v>
+      </c>
+      <c r="T74" t="n">
+        <v>-471</v>
+      </c>
+      <c r="U74" t="n">
+        <v>-382</v>
+      </c>
+      <c r="V74" t="n">
+        <v>-255</v>
+      </c>
+      <c r="W74" t="n">
+        <v>-206</v>
+      </c>
+      <c r="X74" t="n">
         <v>-192</v>
       </c>
-      <c r="R74" t="n">
-        <v>-185</v>
-      </c>
-      <c r="S74" t="n">
-        <v>-1243</v>
-      </c>
-      <c r="T74" t="n">
-        <v>-447</v>
-      </c>
-      <c r="U74" t="n">
-        <v>-407</v>
-      </c>
-      <c r="V74" t="n">
-        <v>-298</v>
-      </c>
-      <c r="W74" t="n">
-        <v>-471</v>
-      </c>
-      <c r="X74" t="n">
-        <v>-382</v>
-      </c>
       <c r="Y74" t="n">
-        <v>-255</v>
+        <v>-14</v>
       </c>
       <c r="Z74" t="n">
-        <v>-206</v>
+        <v>-32</v>
       </c>
       <c r="AA74" t="n">
-        <v>-192</v>
+        <v>44</v>
       </c>
       <c r="AB74" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AD74" t="n">
         <v>-14</v>
       </c>
-      <c r="AC74" t="n">
-        <v>-32</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>44</v>
-      </c>
       <c r="AE74" t="n">
-        <v>-3</v>
+        <v>-50</v>
       </c>
       <c r="AF74" t="n">
-        <v>-3</v>
+        <v>-79</v>
       </c>
       <c r="AG74" t="n">
-        <v>-14</v>
+        <v>-98</v>
       </c>
       <c r="AH74" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="AI74" t="n">
-        <v>-79</v>
+        <v>1560</v>
       </c>
       <c r="AJ74" t="n">
-        <v>-98</v>
+        <v>3239</v>
       </c>
       <c r="AK74" t="n">
-        <v>0</v>
+        <v>1660</v>
       </c>
       <c r="AL74" t="n">
-        <v>1560</v>
+        <v>1117</v>
       </c>
       <c r="AM74" t="n">
-        <v>3239</v>
+        <v>3058</v>
       </c>
       <c r="AN74" t="n">
-        <v>1660</v>
+        <v>1775</v>
       </c>
       <c r="AO74" t="n">
-        <v>1117</v>
+        <v>1002</v>
       </c>
       <c r="AP74" t="n">
-        <v>3058</v>
+        <v>603</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1775</v>
+        <v>-137</v>
       </c>
       <c r="AR74" t="n">
-        <v>1002</v>
+        <v>732</v>
       </c>
       <c r="AS74" t="n">
-        <v>603</v>
+        <v>3883</v>
       </c>
       <c r="AT74" t="n">
-        <v>-137</v>
+        <v>3598</v>
       </c>
       <c r="AU74" t="n">
-        <v>732</v>
+        <v>4722</v>
       </c>
       <c r="AV74" t="n">
-        <v>3883</v>
+        <v>799</v>
       </c>
       <c r="AW74" t="n">
-        <v>3598</v>
+        <v>4449</v>
       </c>
       <c r="AX74" t="n">
-        <v>4722</v>
+        <v>2360</v>
       </c>
       <c r="AY74" t="n">
-        <v>799</v>
+        <v>-540</v>
       </c>
       <c r="AZ74" t="n">
-        <v>4449</v>
+        <v>8946</v>
       </c>
       <c r="BA74" t="n">
-        <v>2360</v>
+        <v>908</v>
       </c>
       <c r="BB74" t="n">
-        <v>-540</v>
+        <v>1294</v>
       </c>
       <c r="BC74" t="n">
-        <v>8946</v>
+        <v>-399</v>
       </c>
       <c r="BD74" t="n">
-        <v>908</v>
+        <v>2750</v>
       </c>
       <c r="BE74" t="n">
-        <v>1294</v>
+        <v>-437</v>
       </c>
       <c r="BF74" t="n">
-        <v>-399</v>
+        <v>-1087</v>
       </c>
       <c r="BG74" t="n">
-        <v>2750</v>
+        <v>-1202</v>
       </c>
       <c r="BH74" t="n">
-        <v>-437</v>
+        <v>3495</v>
       </c>
       <c r="BI74" t="n">
-        <v>-1087</v>
-      </c>
-      <c r="BJ74" t="n">
-        <v>-1202</v>
-      </c>
-      <c r="BK74" t="n">
-        <v>3495</v>
-      </c>
-      <c r="BL74" t="n">
         <v>-316</v>
       </c>
     </row>
@@ -14601,22 +13935,22 @@
         <v>0</v>
       </c>
       <c r="AI75" t="n">
-        <v>0</v>
+        <v>-154</v>
       </c>
       <c r="AJ75" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="AK75" t="n">
-        <v>0</v>
+        <v>-210</v>
       </c>
       <c r="AL75" t="n">
-        <v>-154</v>
+        <v>0</v>
       </c>
       <c r="AM75" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="AN75" t="n">
-        <v>-210</v>
+        <v>210</v>
       </c>
       <c r="AO75" t="n">
         <v>0</v>
@@ -14625,7 +13959,7 @@
         <v>0</v>
       </c>
       <c r="AQ75" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AR75" t="n">
         <v>0</v>
@@ -14637,57 +13971,48 @@
         <v>0</v>
       </c>
       <c r="AU75" t="n">
-        <v>0</v>
+        <v>-486</v>
       </c>
       <c r="AV75" t="n">
-        <v>0</v>
+        <v>-186</v>
       </c>
       <c r="AW75" t="n">
-        <v>0</v>
+        <v>-136</v>
       </c>
       <c r="AX75" t="n">
-        <v>-486</v>
+        <v>0</v>
       </c>
       <c r="AY75" t="n">
-        <v>-186</v>
+        <v>-165</v>
       </c>
       <c r="AZ75" t="n">
-        <v>-136</v>
+        <v>-295</v>
       </c>
       <c r="BA75" t="n">
         <v>0</v>
       </c>
       <c r="BB75" t="n">
-        <v>-165</v>
+        <v>-144</v>
       </c>
       <c r="BC75" t="n">
-        <v>-295</v>
+        <v>-286</v>
       </c>
       <c r="BD75" t="n">
-        <v>0</v>
+        <v>-229</v>
       </c>
       <c r="BE75" t="n">
-        <v>-144</v>
+        <v>0</v>
       </c>
       <c r="BF75" t="n">
-        <v>-286</v>
+        <v>-53</v>
       </c>
       <c r="BG75" t="n">
-        <v>-229</v>
+        <v>-257</v>
       </c>
       <c r="BH75" t="n">
-        <v>0</v>
+        <v>-610</v>
       </c>
       <c r="BI75" t="n">
-        <v>-53</v>
-      </c>
-      <c r="BJ75" t="n">
-        <v>-257</v>
-      </c>
-      <c r="BK75" t="n">
-        <v>-610</v>
-      </c>
-      <c r="BL75" t="n">
         <v>-366</v>
       </c>
     </row>
@@ -14872,18 +14197,9 @@
         <v>0</v>
       </c>
       <c r="BH76" t="n">
-        <v>0</v>
+        <v>20049</v>
       </c>
       <c r="BI76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK76" t="n">
-        <v>20049</v>
-      </c>
-      <c r="BL76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14908,15 +14224,9 @@
       <c r="F77" t="n">
         <v>0</v>
       </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
@@ -14969,9 +14279,6 @@
       <c r="BG77" t="inlineStr"/>
       <c r="BH77" t="inlineStr"/>
       <c r="BI77" t="inlineStr"/>
-      <c r="BJ77" t="inlineStr"/>
-      <c r="BK77" t="inlineStr"/>
-      <c r="BL77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -14994,15 +14301,9 @@
       <c r="F78" t="n">
         <v>0</v>
       </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
@@ -15055,9 +14356,6 @@
       <c r="BG78" t="inlineStr"/>
       <c r="BH78" t="inlineStr"/>
       <c r="BI78" t="inlineStr"/>
-      <c r="BJ78" t="inlineStr"/>
-      <c r="BK78" t="inlineStr"/>
-      <c r="BL78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -15097,9 +14395,15 @@
       <c r="AE79" t="inlineStr"/>
       <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="inlineStr"/>
-      <c r="AH79" t="inlineStr"/>
-      <c r="AI79" t="inlineStr"/>
-      <c r="AJ79" t="inlineStr"/>
+      <c r="AH79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>0</v>
+      </c>
       <c r="AK79" t="n">
         <v>0</v>
       </c>
@@ -15170,18 +14474,9 @@
         <v>0</v>
       </c>
       <c r="BH79" t="n">
-        <v>0</v>
+        <v>-546</v>
       </c>
       <c r="BI79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK79" t="n">
-        <v>-546</v>
-      </c>
-      <c r="BL79" t="n">
         <v>-558</v>
       </c>
     </row>
@@ -15192,192 +14487,183 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-201</v>
+        <v>-171</v>
       </c>
       <c r="C80" t="n">
-        <v>-181</v>
+        <v>-177</v>
       </c>
       <c r="D80" t="n">
-        <v>-210</v>
+        <v>-290</v>
       </c>
       <c r="E80" t="n">
-        <v>-171</v>
+        <v>-211</v>
       </c>
       <c r="F80" t="n">
-        <v>-177</v>
+        <v>-193</v>
       </c>
       <c r="G80" t="n">
-        <v>-290</v>
+        <v>7</v>
       </c>
       <c r="H80" t="n">
-        <v>-211</v>
+        <v>-230</v>
       </c>
       <c r="I80" t="n">
-        <v>-193</v>
+        <v>-230</v>
       </c>
       <c r="J80" t="n">
-        <v>7</v>
+        <v>-169</v>
       </c>
       <c r="K80" t="n">
-        <v>-230</v>
+        <v>-144</v>
       </c>
       <c r="L80" t="n">
-        <v>-230</v>
+        <v>74</v>
       </c>
       <c r="M80" t="n">
-        <v>-169</v>
+        <v>-213</v>
       </c>
       <c r="N80" t="n">
-        <v>-144</v>
+        <v>-192</v>
       </c>
       <c r="O80" t="n">
-        <v>74</v>
+        <v>-185</v>
       </c>
       <c r="P80" t="n">
-        <v>-213</v>
+        <v>-1243</v>
       </c>
       <c r="Q80" t="n">
+        <v>-447</v>
+      </c>
+      <c r="R80" t="n">
+        <v>-407</v>
+      </c>
+      <c r="S80" t="n">
+        <v>-298</v>
+      </c>
+      <c r="T80" t="n">
+        <v>-471</v>
+      </c>
+      <c r="U80" t="n">
+        <v>-382</v>
+      </c>
+      <c r="V80" t="n">
+        <v>-255</v>
+      </c>
+      <c r="W80" t="n">
+        <v>-206</v>
+      </c>
+      <c r="X80" t="n">
         <v>-192</v>
       </c>
-      <c r="R80" t="n">
-        <v>-185</v>
-      </c>
-      <c r="S80" t="n">
-        <v>-1243</v>
-      </c>
-      <c r="T80" t="n">
-        <v>-447</v>
-      </c>
-      <c r="U80" t="n">
-        <v>-407</v>
-      </c>
-      <c r="V80" t="n">
-        <v>-298</v>
-      </c>
-      <c r="W80" t="n">
-        <v>-471</v>
-      </c>
-      <c r="X80" t="n">
-        <v>-382</v>
-      </c>
       <c r="Y80" t="n">
-        <v>-255</v>
+        <v>-14</v>
       </c>
       <c r="Z80" t="n">
-        <v>-206</v>
+        <v>-32</v>
       </c>
       <c r="AA80" t="n">
-        <v>-192</v>
+        <v>44</v>
       </c>
       <c r="AB80" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AD80" t="n">
         <v>-14</v>
       </c>
-      <c r="AC80" t="n">
-        <v>-32</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>44</v>
-      </c>
       <c r="AE80" t="n">
-        <v>-3</v>
+        <v>-50</v>
       </c>
       <c r="AF80" t="n">
-        <v>-3</v>
+        <v>-79</v>
       </c>
       <c r="AG80" t="n">
-        <v>-14</v>
+        <v>-98</v>
       </c>
       <c r="AH80" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="AI80" t="n">
-        <v>-79</v>
+        <v>1406</v>
       </c>
       <c r="AJ80" t="n">
-        <v>-98</v>
+        <v>2757</v>
       </c>
       <c r="AK80" t="n">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="AL80" t="n">
-        <v>1406</v>
+        <v>1117</v>
       </c>
       <c r="AM80" t="n">
-        <v>2757</v>
+        <v>2865</v>
       </c>
       <c r="AN80" t="n">
-        <v>1450</v>
+        <v>1647</v>
       </c>
       <c r="AO80" t="n">
-        <v>1117</v>
+        <v>973</v>
       </c>
       <c r="AP80" t="n">
-        <v>2865</v>
+        <v>506</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1647</v>
+        <v>-137</v>
       </c>
       <c r="AR80" t="n">
-        <v>973</v>
+        <v>771</v>
       </c>
       <c r="AS80" t="n">
-        <v>506</v>
+        <v>3714</v>
       </c>
       <c r="AT80" t="n">
-        <v>-137</v>
+        <v>3397</v>
       </c>
       <c r="AU80" t="n">
-        <v>771</v>
+        <v>4236</v>
       </c>
       <c r="AV80" t="n">
-        <v>3714</v>
+        <v>983</v>
       </c>
       <c r="AW80" t="n">
-        <v>3397</v>
+        <v>4313</v>
       </c>
       <c r="AX80" t="n">
-        <v>4236</v>
+        <v>2262</v>
       </c>
       <c r="AY80" t="n">
-        <v>983</v>
+        <v>-607</v>
       </c>
       <c r="AZ80" t="n">
-        <v>4313</v>
+        <v>8651</v>
       </c>
       <c r="BA80" t="n">
-        <v>2262</v>
+        <v>1162</v>
       </c>
       <c r="BB80" t="n">
-        <v>-607</v>
+        <v>1150</v>
       </c>
       <c r="BC80" t="n">
-        <v>8651</v>
+        <v>-939</v>
       </c>
       <c r="BD80" t="n">
-        <v>1162</v>
+        <v>2521</v>
       </c>
       <c r="BE80" t="n">
-        <v>1150</v>
+        <v>-523</v>
       </c>
       <c r="BF80" t="n">
-        <v>-939</v>
+        <v>-1140</v>
       </c>
       <c r="BG80" t="n">
-        <v>2521</v>
+        <v>-1373</v>
       </c>
       <c r="BH80" t="n">
-        <v>-523</v>
+        <v>22388</v>
       </c>
       <c r="BI80" t="n">
-        <v>-1140</v>
-      </c>
-      <c r="BJ80" t="n">
-        <v>-1373</v>
-      </c>
-      <c r="BK80" t="n">
-        <v>22388</v>
-      </c>
-      <c r="BL80" t="n">
         <v>-1240</v>
       </c>
     </row>
